--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.03742040991111</v>
+        <v>12.03742040991112</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.134899290271031</v>
+        <v>9.134899290270978</v>
       </c>
       <c r="E2">
-        <v>12.32091757421162</v>
+        <v>12.32091757421128</v>
       </c>
       <c r="F2">
-        <v>63.27226197601721</v>
+        <v>63.27226197601686</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.642623253200227</v>
+        <v>8.642623253199893</v>
       </c>
       <c r="J2">
-        <v>34.8863283111698</v>
+        <v>34.88632831116961</v>
       </c>
       <c r="K2">
-        <v>21.59635582183075</v>
+        <v>21.59635582183068</v>
       </c>
       <c r="L2">
-        <v>19.27816247125087</v>
+        <v>19.27816247125081</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.17168679400023</v>
+        <v>11.17168679400025</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.524410691213436</v>
+        <v>8.524410691213454</v>
       </c>
       <c r="E3">
-        <v>11.61628069732509</v>
+        <v>11.61628069732497</v>
       </c>
       <c r="F3">
-        <v>58.9950952283944</v>
+        <v>58.99509522839441</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.445188717204726</v>
+        <v>8.44518871720469</v>
       </c>
       <c r="J3">
-        <v>32.22564279758171</v>
+        <v>32.22564279758168</v>
       </c>
       <c r="K3">
-        <v>19.93674030741374</v>
+        <v>19.93674030741371</v>
       </c>
       <c r="L3">
-        <v>17.84790317720337</v>
+        <v>17.84790317720335</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.71587506992584</v>
+        <v>10.71587506992585</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.148179540534182</v>
+        <v>8.148179540534141</v>
       </c>
       <c r="E4">
-        <v>11.17900459254393</v>
+        <v>11.17900459254409</v>
       </c>
       <c r="F4">
-        <v>56.3414891197086</v>
+        <v>56.34148911970858</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.326639532517088</v>
+        <v>8.326639532517259</v>
       </c>
       <c r="J4">
-        <v>30.53448515844763</v>
+        <v>30.5344851584477</v>
       </c>
       <c r="K4">
-        <v>18.88270863039386</v>
+        <v>18.88270863039388</v>
       </c>
       <c r="L4">
-        <v>16.93706907629371</v>
+        <v>16.9370690762937</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.52758192831888</v>
+        <v>10.52758192831885</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.994330488267328</v>
+        <v>7.994330488267417</v>
       </c>
       <c r="E5">
         <v>10.99926254793984</v>
       </c>
       <c r="F5">
-        <v>55.25220461380071</v>
+        <v>55.25220461380111</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.27878169763158</v>
+        <v>8.278781697631675</v>
       </c>
       <c r="J5">
-        <v>29.82973848364983</v>
+        <v>29.8297384836499</v>
       </c>
       <c r="K5">
         <v>18.44365999499663</v>
       </c>
       <c r="L5">
-        <v>16.55714862307044</v>
+        <v>16.55714862307047</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.49616455494661</v>
+        <v>10.4961645549466</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.96874804638239</v>
+        <v>7.968748046382465</v>
       </c>
       <c r="E6">
-        <v>10.96931350069586</v>
+        <v>10.96931350069597</v>
       </c>
       <c r="F6">
-        <v>55.07083134308733</v>
+        <v>55.0708313430874</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.270856544653887</v>
+        <v>8.270856544654055</v>
       </c>
       <c r="J6">
         <v>29.71174460325312</v>
       </c>
       <c r="K6">
-        <v>18.37016226588578</v>
+        <v>18.37016226588568</v>
       </c>
       <c r="L6">
-        <v>16.49352053919797</v>
+        <v>16.49352053919795</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.71334589575021</v>
+        <v>10.71334589575016</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.146107014263125</v>
+        <v>8.14610701426319</v>
       </c>
       <c r="E7">
-        <v>11.17658723921914</v>
+        <v>11.17658723921912</v>
       </c>
       <c r="F7">
-        <v>56.32683168983341</v>
+        <v>56.32683168983367</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.325992537463062</v>
+        <v>8.325992537462955</v>
       </c>
       <c r="J7">
-        <v>30.52504517763222</v>
+        <v>30.52504517763223</v>
       </c>
       <c r="K7">
         <v>18.87682689063626</v>
       </c>
       <c r="L7">
-        <v>16.93198141003068</v>
+        <v>16.93198141003071</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.73643731794803</v>
+        <v>11.73643731794798</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.92455431572918</v>
+        <v>8.924554315729164</v>
       </c>
       <c r="E8">
-        <v>12.07865537610729</v>
+        <v>12.07865537610721</v>
       </c>
       <c r="F8">
-        <v>61.80239546703618</v>
+        <v>61.80239546703645</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.573845092508654</v>
+        <v>8.573845092508616</v>
       </c>
       <c r="J8">
-        <v>33.98011587424332</v>
+        <v>33.98011587424333</v>
       </c>
       <c r="K8">
-        <v>21.03092143237732</v>
+        <v>21.03092143237741</v>
       </c>
       <c r="L8">
-        <v>18.79143364749841</v>
+        <v>18.79143364749843</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.83000885930192</v>
+        <v>13.83000885930191</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.45778534100303</v>
+        <v>10.45778534100299</v>
       </c>
       <c r="E9">
-        <v>13.83468586458551</v>
+        <v>13.8346858645855</v>
       </c>
       <c r="F9">
-        <v>72.47321097272825</v>
+        <v>72.47321097272844</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.094023585896474</v>
+        <v>9.094023585896508</v>
       </c>
       <c r="J9">
-        <v>40.36238948768068</v>
+        <v>40.36238948768074</v>
       </c>
       <c r="K9">
-        <v>25.01701189699241</v>
+        <v>25.01701189699255</v>
       </c>
       <c r="L9">
-        <v>22.20868393414499</v>
+        <v>22.20868393414503</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.28299681669561</v>
+        <v>15.28299681669565</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.74029057874388</v>
+        <v>11.74029057874381</v>
       </c>
       <c r="E10">
-        <v>15.16426171287242</v>
+        <v>15.16426171287229</v>
       </c>
       <c r="F10">
-        <v>80.63822319130132</v>
+        <v>80.63822319130107</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.521818207557551</v>
+        <v>9.521818207557454</v>
       </c>
       <c r="J10">
-        <v>44.92725516592282</v>
+        <v>44.92725516592267</v>
       </c>
       <c r="K10">
-        <v>27.87311408157356</v>
+        <v>27.8731140815735</v>
       </c>
       <c r="L10">
-        <v>24.63418894330413</v>
+        <v>24.6341889433041</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.93250837733476</v>
+        <v>15.93250837733477</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.33495902751635</v>
+        <v>12.33495902751644</v>
       </c>
       <c r="E11">
-        <v>15.79447589191621</v>
+        <v>15.7944758919163</v>
       </c>
       <c r="F11">
-        <v>84.42614665926402</v>
+        <v>84.42614665926418</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.734978420196544</v>
+        <v>9.734978420196578</v>
       </c>
       <c r="J11">
-        <v>47.01515722997026</v>
+        <v>47.01515722997039</v>
       </c>
       <c r="K11">
-        <v>29.18061109678586</v>
+        <v>29.18061109678594</v>
       </c>
       <c r="L11">
-        <v>25.73700820193242</v>
+        <v>25.73700820193248</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.17766104209775</v>
+        <v>16.1776610420978</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.56330577546719</v>
+        <v>12.56330577546722</v>
       </c>
       <c r="E12">
-        <v>16.03893512297548</v>
+        <v>16.03893512297544</v>
       </c>
       <c r="F12">
-        <v>85.87985316510273</v>
+        <v>85.87985316510233</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.819472682900551</v>
+        <v>9.819472682900415</v>
       </c>
       <c r="J12">
-        <v>47.81214954754512</v>
+        <v>47.8121495475451</v>
       </c>
       <c r="K12">
-        <v>29.67986090159057</v>
+        <v>29.67986090159052</v>
       </c>
       <c r="L12">
-        <v>26.15673452557598</v>
+        <v>26.15673452557599</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.12488188731659</v>
+        <v>16.12488188731655</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.51395551396112</v>
+        <v>12.51395551396103</v>
       </c>
       <c r="E13">
-        <v>15.98598363599812</v>
+        <v>15.98598363599787</v>
       </c>
       <c r="F13">
-        <v>85.56573519993692</v>
+        <v>85.56573519993655</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.801084705178633</v>
+        <v>9.801084705178498</v>
       </c>
       <c r="J13">
-        <v>47.64012518100411</v>
+        <v>47.64012518100384</v>
       </c>
       <c r="K13">
-        <v>29.5720955206631</v>
+        <v>29.57209552066293</v>
       </c>
       <c r="L13">
-        <v>26.06620086034547</v>
+        <v>26.06620086034535</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.95268737879734</v>
+        <v>15.95268737879738</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.35367093898716</v>
+        <v>12.35367093898718</v>
       </c>
       <c r="E14">
-        <v>15.81445561132227</v>
+        <v>15.81445561132217</v>
       </c>
       <c r="F14">
-        <v>84.54529446030773</v>
+        <v>84.54529446030762</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.741846150313812</v>
+        <v>9.741846150313744</v>
       </c>
       <c r="J14">
-        <v>47.08056536808795</v>
+        <v>47.08056536808783</v>
       </c>
       <c r="K14">
-        <v>29.22158098804646</v>
+        <v>29.22158098804638</v>
       </c>
       <c r="L14">
-        <v>25.77148143062858</v>
+        <v>25.77148143062856</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84713896682191</v>
+        <v>15.84713896682182</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.25595932578856</v>
+        <v>12.25595932578842</v>
       </c>
       <c r="E15">
-        <v>15.71022586527006</v>
+        <v>15.7102258652699</v>
       </c>
       <c r="F15">
-        <v>83.9230771992539</v>
+        <v>83.92307719925321</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.706093108138846</v>
+        <v>9.706093108138782</v>
       </c>
       <c r="J15">
-        <v>46.73881677922414</v>
+        <v>46.73881677922394</v>
       </c>
       <c r="K15">
-        <v>29.00752492236228</v>
+        <v>29.0075249223622</v>
       </c>
       <c r="L15">
-        <v>25.59131157959183</v>
+        <v>25.59131157959173</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24038475355721</v>
+        <v>15.24038475355718</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.7017729276214</v>
+        <v>11.70177292762153</v>
       </c>
       <c r="E16">
-        <v>15.1237521663784</v>
+        <v>15.12375216637865</v>
       </c>
       <c r="F16">
-        <v>80.39282508571036</v>
+        <v>80.39282508571085</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.508345951725108</v>
+        <v>9.508345951725241</v>
       </c>
       <c r="J16">
-        <v>44.79139853198997</v>
+        <v>44.79139853199035</v>
       </c>
       <c r="K16">
-        <v>27.78805969531977</v>
+        <v>27.78805969532004</v>
       </c>
       <c r="L16">
-        <v>24.56227570999256</v>
+        <v>24.56227570999271</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86574022617408</v>
+        <v>14.86574022617409</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.3656074572317</v>
+        <v>11.36560745723173</v>
       </c>
       <c r="E17">
-        <v>14.77175799932487</v>
+        <v>14.77175799932476</v>
       </c>
       <c r="F17">
-        <v>78.25120116957636</v>
+        <v>78.2512011695766</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>9.392446665878133</v>
       </c>
       <c r="J17">
-        <v>43.60247067750525</v>
+        <v>43.60247067750526</v>
       </c>
       <c r="K17">
-        <v>27.04384893401807</v>
+        <v>27.0438489340181</v>
       </c>
       <c r="L17">
-        <v>23.9321813136841</v>
+        <v>23.93218131368413</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.64911210335888</v>
+        <v>14.64911210335891</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>11.17319503627723</v>
       </c>
       <c r="E18">
-        <v>14.5715220520665</v>
+        <v>14.57152205206653</v>
       </c>
       <c r="F18">
-        <v>77.02565133886803</v>
+        <v>77.02565133886844</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.327445253366278</v>
+        <v>9.327445253366312</v>
       </c>
       <c r="J18">
-        <v>42.91933635837437</v>
+        <v>42.91933635837444</v>
       </c>
       <c r="K18">
-        <v>26.61635020084125</v>
+        <v>26.61635020084137</v>
       </c>
       <c r="L18">
-        <v>23.56954873985844</v>
+        <v>23.56954873985854</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.57554808412523</v>
+        <v>14.57554808412519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.10817093944515</v>
+        <v>11.10817093944507</v>
       </c>
       <c r="E19">
-        <v>14.50405441838467</v>
+        <v>14.5040544183845</v>
       </c>
       <c r="F19">
-        <v>76.61156147204711</v>
+        <v>76.6115614720466</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.305695068090467</v>
+        <v>9.305695068090333</v>
       </c>
       <c r="J19">
-        <v>42.68804269556649</v>
+        <v>42.68804269556629</v>
       </c>
       <c r="K19">
-        <v>26.47162789890234</v>
+        <v>26.47162789890223</v>
       </c>
       <c r="L19">
-        <v>23.44667528279216</v>
+        <v>23.4466752827921</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.90573481652606</v>
+        <v>14.905734816526</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.40128606988536</v>
+        <v>11.4012860698853</v>
       </c>
       <c r="E20">
-        <v>14.8089854392948</v>
+        <v>14.80898543929472</v>
       </c>
       <c r="F20">
-        <v>78.47848056884675</v>
+        <v>78.47848056884644</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.40460579537053</v>
+        <v>9.404605795370495</v>
       </c>
       <c r="J20">
-        <v>43.72893226207503</v>
+        <v>43.72893226207486</v>
       </c>
       <c r="K20">
-        <v>27.12299635831497</v>
+        <v>27.1229963583149</v>
       </c>
       <c r="L20">
-        <v>23.99926517894598</v>
+        <v>23.99926517894593</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.00327859237149</v>
+        <v>16.00327859237145</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.40064935561833</v>
+        <v>12.40064935561822</v>
       </c>
       <c r="E21">
-        <v>15.86465808813504</v>
+        <v>15.86465808813497</v>
       </c>
       <c r="F21">
-        <v>84.84441156122737</v>
+        <v>84.84441156122693</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.759132351983823</v>
+        <v>9.759132351983789</v>
       </c>
       <c r="J21">
-        <v>47.24470249232632</v>
+        <v>47.24470249232623</v>
       </c>
       <c r="K21">
         <v>29.32439439712883</v>
       </c>
       <c r="L21">
-        <v>25.8579686652324</v>
+        <v>25.85796866523236</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.7165572480031</v>
+        <v>16.71655724800316</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.0734285652614</v>
+        <v>13.07342856526136</v>
       </c>
       <c r="E22">
-        <v>16.59023782154381</v>
+        <v>16.59023782154366</v>
       </c>
       <c r="F22">
-        <v>89.12443958711835</v>
+        <v>89.1244395871181</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.01374508812918</v>
+        <v>10.01374508812914</v>
       </c>
       <c r="J22">
-        <v>49.58320992719009</v>
+        <v>49.58320992719001</v>
       </c>
       <c r="K22">
         <v>30.78952314288577</v>
       </c>
       <c r="L22">
-        <v>27.08677481615456</v>
+        <v>27.08677481615458</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.33586617606149</v>
+        <v>16.33586617606143</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.71187036739117</v>
+        <v>12.71187036739104</v>
       </c>
       <c r="E23">
-        <v>16.19874261756484</v>
+        <v>16.19874261756466</v>
       </c>
       <c r="F23">
-        <v>86.8252593313984</v>
+        <v>86.82525933139802</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.875255950043277</v>
+        <v>9.875255950043142</v>
       </c>
       <c r="J23">
-        <v>48.32927851090156</v>
+        <v>48.32927851090143</v>
       </c>
       <c r="K23">
-        <v>30.00383803201894</v>
+        <v>30.00383803201891</v>
       </c>
       <c r="L23">
-        <v>26.42868462152259</v>
+        <v>26.42868462152254</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88765718364463</v>
+        <v>14.88765718364456</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.38515321754669</v>
+        <v>11.38515321754676</v>
       </c>
       <c r="E24">
-        <v>14.79214842802173</v>
+        <v>14.79214842802167</v>
       </c>
       <c r="F24">
-        <v>78.3757104083077</v>
+        <v>78.37571040830807</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.399103650422363</v>
+        <v>9.399103650422298</v>
       </c>
       <c r="J24">
-        <v>43.67175807443358</v>
+        <v>43.67175807443355</v>
       </c>
       <c r="K24">
-        <v>27.08721289801625</v>
+        <v>27.08721289801623</v>
       </c>
       <c r="L24">
-        <v>23.96893790904441</v>
+        <v>23.9689379090444</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28048311295467</v>
+        <v>13.28048311295468</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.03726369157286</v>
+        <v>10.0372636915729</v>
       </c>
       <c r="E25">
-        <v>13.35702939625643</v>
+        <v>13.35702939625657</v>
       </c>
       <c r="F25">
-        <v>69.53490609372349</v>
+        <v>69.53490609372385</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.947526408188942</v>
+        <v>8.947526408188974</v>
       </c>
       <c r="J25">
-        <v>38.66777629700896</v>
+        <v>38.66777629700906</v>
       </c>
       <c r="K25">
-        <v>23.95777283451375</v>
+        <v>23.95777283451381</v>
       </c>
       <c r="L25">
-        <v>21.30395823923322</v>
+        <v>21.30395823923326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.03742040991112</v>
+        <v>12.03742040991111</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.134899290270978</v>
+        <v>9.134899290271031</v>
       </c>
       <c r="E2">
-        <v>12.32091757421128</v>
+        <v>12.32091757421162</v>
       </c>
       <c r="F2">
-        <v>63.27226197601686</v>
+        <v>63.27226197601721</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.642623253199893</v>
+        <v>8.642623253200227</v>
       </c>
       <c r="J2">
-        <v>34.88632831116961</v>
+        <v>34.8863283111698</v>
       </c>
       <c r="K2">
-        <v>21.59635582183068</v>
+        <v>21.59635582183075</v>
       </c>
       <c r="L2">
-        <v>19.27816247125081</v>
+        <v>19.27816247125087</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.17168679400025</v>
+        <v>11.17168679400023</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.524410691213454</v>
+        <v>8.524410691213436</v>
       </c>
       <c r="E3">
-        <v>11.61628069732497</v>
+        <v>11.61628069732509</v>
       </c>
       <c r="F3">
-        <v>58.99509522839441</v>
+        <v>58.9950952283944</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.44518871720469</v>
+        <v>8.445188717204726</v>
       </c>
       <c r="J3">
-        <v>32.22564279758168</v>
+        <v>32.22564279758171</v>
       </c>
       <c r="K3">
-        <v>19.93674030741371</v>
+        <v>19.93674030741374</v>
       </c>
       <c r="L3">
-        <v>17.84790317720335</v>
+        <v>17.84790317720337</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.71587506992585</v>
+        <v>10.71587506992584</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.148179540534141</v>
+        <v>8.148179540534182</v>
       </c>
       <c r="E4">
-        <v>11.17900459254409</v>
+        <v>11.17900459254393</v>
       </c>
       <c r="F4">
-        <v>56.34148911970858</v>
+        <v>56.3414891197086</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.326639532517259</v>
+        <v>8.326639532517088</v>
       </c>
       <c r="J4">
-        <v>30.5344851584477</v>
+        <v>30.53448515844763</v>
       </c>
       <c r="K4">
-        <v>18.88270863039388</v>
+        <v>18.88270863039386</v>
       </c>
       <c r="L4">
-        <v>16.9370690762937</v>
+        <v>16.93706907629371</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.52758192831885</v>
+        <v>10.52758192831888</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.994330488267417</v>
+        <v>7.994330488267328</v>
       </c>
       <c r="E5">
         <v>10.99926254793984</v>
       </c>
       <c r="F5">
-        <v>55.25220461380111</v>
+        <v>55.25220461380071</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.278781697631675</v>
+        <v>8.27878169763158</v>
       </c>
       <c r="J5">
-        <v>29.8297384836499</v>
+        <v>29.82973848364983</v>
       </c>
       <c r="K5">
         <v>18.44365999499663</v>
       </c>
       <c r="L5">
-        <v>16.55714862307047</v>
+        <v>16.55714862307044</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.4961645549466</v>
+        <v>10.49616455494661</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.968748046382465</v>
+        <v>7.96874804638239</v>
       </c>
       <c r="E6">
-        <v>10.96931350069597</v>
+        <v>10.96931350069586</v>
       </c>
       <c r="F6">
-        <v>55.0708313430874</v>
+        <v>55.07083134308733</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.270856544654055</v>
+        <v>8.270856544653887</v>
       </c>
       <c r="J6">
         <v>29.71174460325312</v>
       </c>
       <c r="K6">
-        <v>18.37016226588568</v>
+        <v>18.37016226588578</v>
       </c>
       <c r="L6">
-        <v>16.49352053919795</v>
+        <v>16.49352053919797</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.71334589575016</v>
+        <v>10.71334589575021</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.14610701426319</v>
+        <v>8.146107014263125</v>
       </c>
       <c r="E7">
-        <v>11.17658723921912</v>
+        <v>11.17658723921914</v>
       </c>
       <c r="F7">
-        <v>56.32683168983367</v>
+        <v>56.32683168983341</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.325992537462955</v>
+        <v>8.325992537463062</v>
       </c>
       <c r="J7">
-        <v>30.52504517763223</v>
+        <v>30.52504517763222</v>
       </c>
       <c r="K7">
         <v>18.87682689063626</v>
       </c>
       <c r="L7">
-        <v>16.93198141003071</v>
+        <v>16.93198141003068</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.73643731794798</v>
+        <v>11.73643731794803</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.924554315729164</v>
+        <v>8.92455431572918</v>
       </c>
       <c r="E8">
-        <v>12.07865537610721</v>
+        <v>12.07865537610729</v>
       </c>
       <c r="F8">
-        <v>61.80239546703645</v>
+        <v>61.80239546703618</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.573845092508616</v>
+        <v>8.573845092508654</v>
       </c>
       <c r="J8">
-        <v>33.98011587424333</v>
+        <v>33.98011587424332</v>
       </c>
       <c r="K8">
-        <v>21.03092143237741</v>
+        <v>21.03092143237732</v>
       </c>
       <c r="L8">
-        <v>18.79143364749843</v>
+        <v>18.79143364749841</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.83000885930191</v>
+        <v>13.83000885930192</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.45778534100299</v>
+        <v>10.45778534100303</v>
       </c>
       <c r="E9">
-        <v>13.8346858645855</v>
+        <v>13.83468586458551</v>
       </c>
       <c r="F9">
-        <v>72.47321097272844</v>
+        <v>72.47321097272825</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.094023585896508</v>
+        <v>9.094023585896474</v>
       </c>
       <c r="J9">
-        <v>40.36238948768074</v>
+        <v>40.36238948768068</v>
       </c>
       <c r="K9">
-        <v>25.01701189699255</v>
+        <v>25.01701189699241</v>
       </c>
       <c r="L9">
-        <v>22.20868393414503</v>
+        <v>22.20868393414499</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.28299681669565</v>
+        <v>15.28299681669561</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.74029057874381</v>
+        <v>11.74029057874388</v>
       </c>
       <c r="E10">
-        <v>15.16426171287229</v>
+        <v>15.16426171287242</v>
       </c>
       <c r="F10">
-        <v>80.63822319130107</v>
+        <v>80.63822319130132</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.521818207557454</v>
+        <v>9.521818207557551</v>
       </c>
       <c r="J10">
-        <v>44.92725516592267</v>
+        <v>44.92725516592282</v>
       </c>
       <c r="K10">
-        <v>27.8731140815735</v>
+        <v>27.87311408157356</v>
       </c>
       <c r="L10">
-        <v>24.6341889433041</v>
+        <v>24.63418894330413</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.93250837733477</v>
+        <v>15.93250837733476</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.33495902751644</v>
+        <v>12.33495902751635</v>
       </c>
       <c r="E11">
-        <v>15.7944758919163</v>
+        <v>15.79447589191621</v>
       </c>
       <c r="F11">
-        <v>84.42614665926418</v>
+        <v>84.42614665926402</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.734978420196578</v>
+        <v>9.734978420196544</v>
       </c>
       <c r="J11">
-        <v>47.01515722997039</v>
+        <v>47.01515722997026</v>
       </c>
       <c r="K11">
-        <v>29.18061109678594</v>
+        <v>29.18061109678586</v>
       </c>
       <c r="L11">
-        <v>25.73700820193248</v>
+        <v>25.73700820193242</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.1776610420978</v>
+        <v>16.17766104209775</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.56330577546722</v>
+        <v>12.56330577546719</v>
       </c>
       <c r="E12">
-        <v>16.03893512297544</v>
+        <v>16.03893512297548</v>
       </c>
       <c r="F12">
-        <v>85.87985316510233</v>
+        <v>85.87985316510273</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.819472682900415</v>
+        <v>9.819472682900551</v>
       </c>
       <c r="J12">
-        <v>47.8121495475451</v>
+        <v>47.81214954754512</v>
       </c>
       <c r="K12">
-        <v>29.67986090159052</v>
+        <v>29.67986090159057</v>
       </c>
       <c r="L12">
-        <v>26.15673452557599</v>
+        <v>26.15673452557598</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.12488188731655</v>
+        <v>16.12488188731659</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.51395551396103</v>
+        <v>12.51395551396112</v>
       </c>
       <c r="E13">
-        <v>15.98598363599787</v>
+        <v>15.98598363599812</v>
       </c>
       <c r="F13">
-        <v>85.56573519993655</v>
+        <v>85.56573519993692</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.801084705178498</v>
+        <v>9.801084705178633</v>
       </c>
       <c r="J13">
-        <v>47.64012518100384</v>
+        <v>47.64012518100411</v>
       </c>
       <c r="K13">
-        <v>29.57209552066293</v>
+        <v>29.5720955206631</v>
       </c>
       <c r="L13">
-        <v>26.06620086034535</v>
+        <v>26.06620086034547</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.95268737879738</v>
+        <v>15.95268737879734</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.35367093898718</v>
+        <v>12.35367093898716</v>
       </c>
       <c r="E14">
-        <v>15.81445561132217</v>
+        <v>15.81445561132227</v>
       </c>
       <c r="F14">
-        <v>84.54529446030762</v>
+        <v>84.54529446030773</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.741846150313744</v>
+        <v>9.741846150313812</v>
       </c>
       <c r="J14">
-        <v>47.08056536808783</v>
+        <v>47.08056536808795</v>
       </c>
       <c r="K14">
-        <v>29.22158098804638</v>
+        <v>29.22158098804646</v>
       </c>
       <c r="L14">
-        <v>25.77148143062856</v>
+        <v>25.77148143062858</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84713896682182</v>
+        <v>15.84713896682191</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.25595932578842</v>
+        <v>12.25595932578856</v>
       </c>
       <c r="E15">
-        <v>15.7102258652699</v>
+        <v>15.71022586527006</v>
       </c>
       <c r="F15">
-        <v>83.92307719925321</v>
+        <v>83.9230771992539</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.706093108138782</v>
+        <v>9.706093108138846</v>
       </c>
       <c r="J15">
-        <v>46.73881677922394</v>
+        <v>46.73881677922414</v>
       </c>
       <c r="K15">
-        <v>29.0075249223622</v>
+        <v>29.00752492236228</v>
       </c>
       <c r="L15">
-        <v>25.59131157959173</v>
+        <v>25.59131157959183</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24038475355718</v>
+        <v>15.24038475355721</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.70177292762153</v>
+        <v>11.7017729276214</v>
       </c>
       <c r="E16">
-        <v>15.12375216637865</v>
+        <v>15.1237521663784</v>
       </c>
       <c r="F16">
-        <v>80.39282508571085</v>
+        <v>80.39282508571036</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.508345951725241</v>
+        <v>9.508345951725108</v>
       </c>
       <c r="J16">
-        <v>44.79139853199035</v>
+        <v>44.79139853198997</v>
       </c>
       <c r="K16">
-        <v>27.78805969532004</v>
+        <v>27.78805969531977</v>
       </c>
       <c r="L16">
-        <v>24.56227570999271</v>
+        <v>24.56227570999256</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86574022617409</v>
+        <v>14.86574022617408</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.36560745723173</v>
+        <v>11.3656074572317</v>
       </c>
       <c r="E17">
-        <v>14.77175799932476</v>
+        <v>14.77175799932487</v>
       </c>
       <c r="F17">
-        <v>78.2512011695766</v>
+        <v>78.25120116957636</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>9.392446665878133</v>
       </c>
       <c r="J17">
-        <v>43.60247067750526</v>
+        <v>43.60247067750525</v>
       </c>
       <c r="K17">
-        <v>27.0438489340181</v>
+        <v>27.04384893401807</v>
       </c>
       <c r="L17">
-        <v>23.93218131368413</v>
+        <v>23.9321813136841</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.64911210335891</v>
+        <v>14.64911210335888</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>11.17319503627723</v>
       </c>
       <c r="E18">
-        <v>14.57152205206653</v>
+        <v>14.5715220520665</v>
       </c>
       <c r="F18">
-        <v>77.02565133886844</v>
+        <v>77.02565133886803</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.327445253366312</v>
+        <v>9.327445253366278</v>
       </c>
       <c r="J18">
-        <v>42.91933635837444</v>
+        <v>42.91933635837437</v>
       </c>
       <c r="K18">
-        <v>26.61635020084137</v>
+        <v>26.61635020084125</v>
       </c>
       <c r="L18">
-        <v>23.56954873985854</v>
+        <v>23.56954873985844</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.57554808412519</v>
+        <v>14.57554808412523</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.10817093944507</v>
+        <v>11.10817093944515</v>
       </c>
       <c r="E19">
-        <v>14.5040544183845</v>
+        <v>14.50405441838467</v>
       </c>
       <c r="F19">
-        <v>76.6115614720466</v>
+        <v>76.61156147204711</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.305695068090333</v>
+        <v>9.305695068090467</v>
       </c>
       <c r="J19">
-        <v>42.68804269556629</v>
+        <v>42.68804269556649</v>
       </c>
       <c r="K19">
-        <v>26.47162789890223</v>
+        <v>26.47162789890234</v>
       </c>
       <c r="L19">
-        <v>23.4466752827921</v>
+        <v>23.44667528279216</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.905734816526</v>
+        <v>14.90573481652606</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.4012860698853</v>
+        <v>11.40128606988536</v>
       </c>
       <c r="E20">
-        <v>14.80898543929472</v>
+        <v>14.8089854392948</v>
       </c>
       <c r="F20">
-        <v>78.47848056884644</v>
+        <v>78.47848056884675</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.404605795370495</v>
+        <v>9.40460579537053</v>
       </c>
       <c r="J20">
-        <v>43.72893226207486</v>
+        <v>43.72893226207503</v>
       </c>
       <c r="K20">
-        <v>27.1229963583149</v>
+        <v>27.12299635831497</v>
       </c>
       <c r="L20">
-        <v>23.99926517894593</v>
+        <v>23.99926517894598</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.00327859237145</v>
+        <v>16.00327859237149</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.40064935561822</v>
+        <v>12.40064935561833</v>
       </c>
       <c r="E21">
-        <v>15.86465808813497</v>
+        <v>15.86465808813504</v>
       </c>
       <c r="F21">
-        <v>84.84441156122693</v>
+        <v>84.84441156122737</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.759132351983789</v>
+        <v>9.759132351983823</v>
       </c>
       <c r="J21">
-        <v>47.24470249232623</v>
+        <v>47.24470249232632</v>
       </c>
       <c r="K21">
         <v>29.32439439712883</v>
       </c>
       <c r="L21">
-        <v>25.85796866523236</v>
+        <v>25.8579686652324</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71655724800316</v>
+        <v>16.7165572480031</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.07342856526136</v>
+        <v>13.0734285652614</v>
       </c>
       <c r="E22">
-        <v>16.59023782154366</v>
+        <v>16.59023782154381</v>
       </c>
       <c r="F22">
-        <v>89.1244395871181</v>
+        <v>89.12443958711835</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.01374508812914</v>
+        <v>10.01374508812918</v>
       </c>
       <c r="J22">
-        <v>49.58320992719001</v>
+        <v>49.58320992719009</v>
       </c>
       <c r="K22">
         <v>30.78952314288577</v>
       </c>
       <c r="L22">
-        <v>27.08677481615458</v>
+        <v>27.08677481615456</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.33586617606143</v>
+        <v>16.33586617606149</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.71187036739104</v>
+        <v>12.71187036739117</v>
       </c>
       <c r="E23">
-        <v>16.19874261756466</v>
+        <v>16.19874261756484</v>
       </c>
       <c r="F23">
-        <v>86.82525933139802</v>
+        <v>86.8252593313984</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.875255950043142</v>
+        <v>9.875255950043277</v>
       </c>
       <c r="J23">
-        <v>48.32927851090143</v>
+        <v>48.32927851090156</v>
       </c>
       <c r="K23">
-        <v>30.00383803201891</v>
+        <v>30.00383803201894</v>
       </c>
       <c r="L23">
-        <v>26.42868462152254</v>
+        <v>26.42868462152259</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88765718364456</v>
+        <v>14.88765718364463</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.38515321754676</v>
+        <v>11.38515321754669</v>
       </c>
       <c r="E24">
-        <v>14.79214842802167</v>
+        <v>14.79214842802173</v>
       </c>
       <c r="F24">
-        <v>78.37571040830807</v>
+        <v>78.3757104083077</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.399103650422298</v>
+        <v>9.399103650422363</v>
       </c>
       <c r="J24">
-        <v>43.67175807443355</v>
+        <v>43.67175807443358</v>
       </c>
       <c r="K24">
-        <v>27.08721289801623</v>
+        <v>27.08721289801625</v>
       </c>
       <c r="L24">
-        <v>23.9689379090444</v>
+        <v>23.96893790904441</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28048311295468</v>
+        <v>13.28048311295467</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.0372636915729</v>
+        <v>10.03726369157286</v>
       </c>
       <c r="E25">
-        <v>13.35702939625657</v>
+        <v>13.35702939625643</v>
       </c>
       <c r="F25">
-        <v>69.53490609372385</v>
+        <v>69.53490609372349</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.947526408188974</v>
+        <v>8.947526408188942</v>
       </c>
       <c r="J25">
-        <v>38.66777629700906</v>
+        <v>38.66777629700896</v>
       </c>
       <c r="K25">
-        <v>23.95777283451381</v>
+        <v>23.95777283451375</v>
       </c>
       <c r="L25">
-        <v>21.30395823923326</v>
+        <v>21.30395823923322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.03742040991111</v>
+        <v>12.002739900673</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.134899290271031</v>
+        <v>9.165834801947643</v>
       </c>
       <c r="E2">
-        <v>12.32091757421162</v>
+        <v>12.01534799781782</v>
       </c>
       <c r="F2">
-        <v>63.27226197601721</v>
+        <v>63.26733723124644</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.005524223495765</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.642623253200227</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>34.8863283111698</v>
+        <v>8.48973694301154</v>
       </c>
       <c r="K2">
-        <v>21.59635582183075</v>
+        <v>34.57369374651765</v>
       </c>
       <c r="L2">
-        <v>19.27816247125087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>21.42575084313618</v>
+      </c>
+      <c r="M2">
+        <v>19.14206729445971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.17168679400023</v>
+        <v>11.1786599777658</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.524410691213436</v>
+        <v>8.573987689607304</v>
       </c>
       <c r="E3">
-        <v>11.61628069732509</v>
+        <v>11.3096134168222</v>
       </c>
       <c r="F3">
-        <v>58.9950952283944</v>
+        <v>59.06208650111263</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.028040845833692</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.445188717204726</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>32.22564279758171</v>
+        <v>8.292708568345692</v>
       </c>
       <c r="K3">
-        <v>19.93674030741374</v>
+        <v>31.92885406125174</v>
       </c>
       <c r="L3">
-        <v>17.84790317720337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19.77576897962636</v>
+      </c>
+      <c r="M3">
+        <v>17.71740960924777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.71587506992584</v>
+        <v>10.72683106797364</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.148179540534182</v>
+        <v>8.210217714985474</v>
       </c>
       <c r="E4">
-        <v>11.17900459254393</v>
+        <v>10.87095832987968</v>
       </c>
       <c r="F4">
-        <v>56.3414891197086</v>
+        <v>56.45602638227424</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.041866920138841</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.326639532517088</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>30.53448515844763</v>
+        <v>8.174276354638426</v>
       </c>
       <c r="K4">
-        <v>18.88270863039386</v>
+        <v>30.24735120797432</v>
       </c>
       <c r="L4">
-        <v>16.93706907629371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18.72761814786196</v>
+      </c>
+      <c r="M4">
+        <v>16.80983208075665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.52758192831888</v>
+        <v>10.54024709570999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.994330488267328</v>
+        <v>8.061717528740749</v>
       </c>
       <c r="E5">
-        <v>10.99926254793984</v>
+        <v>10.69048482773225</v>
       </c>
       <c r="F5">
-        <v>55.25220461380071</v>
+        <v>55.38705427246226</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.047518138655956</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.27878169763158</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>29.82973848364983</v>
+        <v>8.126438718630798</v>
       </c>
       <c r="K5">
-        <v>18.44365999499663</v>
+        <v>29.54654782594627</v>
       </c>
       <c r="L5">
-        <v>16.55714862307044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>18.29097444108626</v>
+      </c>
+      <c r="M5">
+        <v>16.43120156649269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.49616455494661</v>
+        <v>10.50911891242973</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.96874804638239</v>
+        <v>8.03704000996998</v>
       </c>
       <c r="E6">
-        <v>10.96931350069586</v>
+        <v>10.66040426253937</v>
       </c>
       <c r="F6">
-        <v>55.07083134308733</v>
+        <v>55.20911269221588</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.048457985566424</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.270856544653887</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>29.71174460325312</v>
+        <v>8.118515406402805</v>
       </c>
       <c r="K6">
-        <v>18.37016226588578</v>
+        <v>29.42920997252684</v>
       </c>
       <c r="L6">
-        <v>16.49352053919797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>18.2178769982001</v>
+      </c>
+      <c r="M6">
+        <v>16.36778563205288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.71334589575021</v>
+        <v>10.72432458715726</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.146107014263125</v>
+        <v>8.208216210661751</v>
       </c>
       <c r="E7">
-        <v>11.17658723921914</v>
+        <v>10.8685317898677</v>
       </c>
       <c r="F7">
-        <v>56.32683168983341</v>
+        <v>56.44163899560112</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.041943045440555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.325992537463062</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>30.52504517763222</v>
+        <v>8.173629736468495</v>
       </c>
       <c r="K7">
-        <v>18.87682689063626</v>
+        <v>30.23796433911838</v>
       </c>
       <c r="L7">
-        <v>16.93198141003068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18.72176878740288</v>
+      </c>
+      <c r="M7">
+        <v>16.80476195204297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.73643731794803</v>
+        <v>11.70293533822796</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.92455431572918</v>
+        <v>8.961717103620098</v>
       </c>
       <c r="E8">
-        <v>12.07865537610729</v>
+        <v>11.77285925605747</v>
       </c>
       <c r="F8">
-        <v>61.80239546703618</v>
+        <v>61.82161905380351</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.013298808491562</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.573845092508654</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>33.98011587424332</v>
+        <v>8.421130284563617</v>
       </c>
       <c r="K8">
-        <v>21.03092143237732</v>
+        <v>33.67297897991611</v>
       </c>
       <c r="L8">
-        <v>18.79143364749841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20.86365663289838</v>
+      </c>
+      <c r="M8">
+        <v>18.65731423596155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.83000885930192</v>
+        <v>13.78803136151709</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.45778534100303</v>
+        <v>10.44895788757765</v>
       </c>
       <c r="E9">
-        <v>13.83468586458551</v>
+        <v>13.52716122236082</v>
       </c>
       <c r="F9">
-        <v>72.47321097272825</v>
+        <v>72.2597010264671</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.95619044401828</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.094023585896474</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>40.36238948768068</v>
+        <v>8.939201913950987</v>
       </c>
       <c r="K9">
-        <v>25.01701189699241</v>
+        <v>40.01366210916378</v>
       </c>
       <c r="L9">
-        <v>22.20868393414499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>24.82451817492259</v>
+      </c>
+      <c r="M9">
+        <v>22.05896211578404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.28299681669561</v>
+        <v>15.23437720169253</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.74029057874388</v>
+        <v>11.64033811130613</v>
       </c>
       <c r="E10">
-        <v>15.16426171287242</v>
+        <v>14.850348255565</v>
       </c>
       <c r="F10">
-        <v>80.63822319130132</v>
+        <v>80.31536028711636</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.911923854516693</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.521818207557551</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>44.92725516592282</v>
+        <v>9.363798646887982</v>
       </c>
       <c r="K10">
-        <v>27.87311408157356</v>
+        <v>44.54313235226742</v>
       </c>
       <c r="L10">
-        <v>24.63418894330413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>27.6591951134771</v>
+      </c>
+      <c r="M10">
+        <v>24.47033488144076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.93250837733476</v>
+        <v>15.88054844594989</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.33495902751635</v>
+        <v>12.22658945301745</v>
       </c>
       <c r="E11">
-        <v>15.79447589191621</v>
+        <v>15.47594302359961</v>
       </c>
       <c r="F11">
-        <v>84.42614665926402</v>
+        <v>84.05128935463702</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.890708599705412</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.734978420196544</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>47.01515722997026</v>
+        <v>9.57482537543093</v>
       </c>
       <c r="K11">
-        <v>29.18061109678586</v>
+        <v>46.6125182751584</v>
       </c>
       <c r="L11">
-        <v>25.73700820193242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>28.95549350757949</v>
+      </c>
+      <c r="M11">
+        <v>25.56556241135383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.17766104209775</v>
+        <v>16.12435855024673</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.56330577546719</v>
+        <v>12.45160154575196</v>
       </c>
       <c r="E12">
-        <v>16.03893512297548</v>
+        <v>15.71831503392625</v>
       </c>
       <c r="F12">
-        <v>85.87985316510273</v>
+        <v>85.48457875481844</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.882448788034045</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.819472682900551</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>47.81214954754512</v>
+        <v>9.658366783425432</v>
       </c>
       <c r="K12">
-        <v>29.67986090159057</v>
+        <v>47.40195470463311</v>
       </c>
       <c r="L12">
-        <v>26.15673452557598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>29.45017493287247</v>
+      </c>
+      <c r="M12">
+        <v>25.98216100370655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.12488188731659</v>
+        <v>16.07187268762744</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.51395551396112</v>
+        <v>12.40297754996912</v>
       </c>
       <c r="E13">
-        <v>15.98598363599812</v>
+        <v>15.66583015825774</v>
       </c>
       <c r="F13">
-        <v>85.56573519993692</v>
+        <v>85.17489905402694</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.88423917046273</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.801084705178633</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>47.64012518100411</v>
+        <v>9.640191522579187</v>
       </c>
       <c r="K13">
-        <v>29.5720955206631</v>
+        <v>47.23158618630537</v>
       </c>
       <c r="L13">
-        <v>26.06620086034547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>29.34341063037422</v>
+      </c>
+      <c r="M13">
+        <v>25.89231409889595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.95268737879734</v>
+        <v>15.90061879347957</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.35367093898716</v>
+        <v>12.24503051090729</v>
       </c>
       <c r="E14">
-        <v>15.81445561132227</v>
+        <v>15.49575851900039</v>
       </c>
       <c r="F14">
-        <v>84.54529446030773</v>
+        <v>84.16877506658014</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.89003409510422</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.741846150313812</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>47.08056536808795</v>
+        <v>9.581617987711914</v>
       </c>
       <c r="K14">
-        <v>29.22158098804646</v>
+        <v>46.6773172140776</v>
       </c>
       <c r="L14">
-        <v>25.77148143062858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>28.9960950403845</v>
+      </c>
+      <c r="M14">
+        <v>25.59978405269823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84713896682191</v>
+        <v>15.79563519482327</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.25595932578856</v>
+        <v>12.14872880290681</v>
       </c>
       <c r="E15">
-        <v>15.71022586527006</v>
+        <v>15.39237321249795</v>
       </c>
       <c r="F15">
-        <v>83.9230771992539</v>
+        <v>83.5552170143466</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.893551648216077</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.706093108138846</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>46.73881677922414</v>
+        <v>9.546251551904488</v>
       </c>
       <c r="K15">
-        <v>29.00752492236228</v>
+        <v>46.33873086771087</v>
       </c>
       <c r="L15">
-        <v>25.59131157959183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>28.78395111412566</v>
+      </c>
+      <c r="M15">
+        <v>25.42091897485503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24038475355721</v>
+        <v>15.19197464874152</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.7017729276214</v>
+        <v>11.60235455308957</v>
       </c>
       <c r="E16">
-        <v>15.1237521663784</v>
+        <v>14.81009941032785</v>
       </c>
       <c r="F16">
-        <v>80.39282508571036</v>
+        <v>80.07328447739856</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.913283129232545</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.508345951725108</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>44.79139853198997</v>
+        <v>9.350448672004106</v>
       </c>
       <c r="K16">
-        <v>27.78805969531977</v>
+        <v>44.40842260718462</v>
       </c>
       <c r="L16">
-        <v>24.56227570999256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>27.57483454978918</v>
+      </c>
+      <c r="M16">
+        <v>24.39888805294386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86574022617408</v>
+        <v>14.81912819342581</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.3656074572317</v>
+        <v>11.27080510045092</v>
       </c>
       <c r="E17">
-        <v>14.77175799932487</v>
+        <v>14.4601922351983</v>
       </c>
       <c r="F17">
-        <v>78.25120116957636</v>
+        <v>77.96049324530009</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.925068632805391</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.392446665878133</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>43.60247067750525</v>
+        <v>9.235541829330087</v>
       </c>
       <c r="K17">
-        <v>27.04384893401807</v>
+        <v>43.22926164113643</v>
       </c>
       <c r="L17">
-        <v>23.9321813136841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>26.83653332881801</v>
+      </c>
+      <c r="M17">
+        <v>23.77274501886995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.64911210335888</v>
+        <v>14.60350680496995</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.17319503627723</v>
+        <v>11.08100352917709</v>
       </c>
       <c r="E18">
-        <v>14.5715220520665</v>
+        <v>14.26100294736775</v>
       </c>
       <c r="F18">
-        <v>77.02565133886803</v>
+        <v>76.75134731676881</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.931751270287179</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.327445253366278</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>42.91933635837437</v>
+        <v>9.171051206051379</v>
       </c>
       <c r="K18">
-        <v>26.61635020084125</v>
+        <v>42.55153361007367</v>
       </c>
       <c r="L18">
-        <v>23.56954873985844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>26.41230651223582</v>
+      </c>
+      <c r="M18">
+        <v>23.41228266064432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.57554808412523</v>
+        <v>14.53027966567507</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.10817093944515</v>
+        <v>11.01691769180364</v>
       </c>
       <c r="E19">
-        <v>14.50405441838467</v>
+        <v>14.19386533011549</v>
       </c>
       <c r="F19">
-        <v>76.61156147204711</v>
+        <v>76.34279013383357</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.93399916570901</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.305695068090467</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>42.68804269556649</v>
+        <v>9.149464719235935</v>
       </c>
       <c r="K19">
-        <v>26.47162789890234</v>
+        <v>42.3220386061427</v>
       </c>
       <c r="L19">
-        <v>23.44667528279216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>26.26867290559797</v>
+      </c>
+      <c r="M19">
+        <v>23.29012833550918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.90573481652606</v>
+        <v>14.85893440107288</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.40128606988536</v>
+        <v>11.30599731295394</v>
       </c>
       <c r="E20">
-        <v>14.8089854392948</v>
+        <v>14.49721392962736</v>
       </c>
       <c r="F20">
-        <v>78.47848056884675</v>
+        <v>78.18472432351265</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.923824423261633</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.40460579537053</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>43.72893226207503</v>
+        <v>9.247601790586044</v>
       </c>
       <c r="K20">
-        <v>27.12299635831497</v>
+        <v>43.35470651449685</v>
       </c>
       <c r="L20">
-        <v>23.99926517894598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>26.91506549963717</v>
+      </c>
+      <c r="M20">
+        <v>23.83941934622429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.00327859237149</v>
+        <v>15.95093617161374</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.40064935561833</v>
+        <v>12.29132708373443</v>
       </c>
       <c r="E21">
-        <v>15.86465808813504</v>
+        <v>15.5455433941144</v>
       </c>
       <c r="F21">
-        <v>84.84441156122737</v>
+        <v>84.46371099128808</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.888338822692203</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.759132351983823</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>47.24470249232632</v>
+        <v>9.598713304574744</v>
       </c>
       <c r="K21">
-        <v>29.32439439712883</v>
+        <v>46.8399171778327</v>
       </c>
       <c r="L21">
-        <v>25.8579686652324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>29.09797901305651</v>
+      </c>
+      <c r="M21">
+        <v>25.68563600093184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.7165572480031</v>
+        <v>16.66011051004644</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.0734285652614</v>
+        <v>12.95401094476233</v>
       </c>
       <c r="E22">
-        <v>16.59023782154381</v>
+        <v>16.26426374801073</v>
       </c>
       <c r="F22">
-        <v>89.12443958711835</v>
+        <v>88.68230551475985</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.863773512184036</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.01374508812918</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>49.58320992719009</v>
+        <v>9.850203213758384</v>
       </c>
       <c r="K22">
-        <v>30.78952314288577</v>
+        <v>49.15509242482403</v>
       </c>
       <c r="L22">
-        <v>27.08677481615456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>30.54900393893605</v>
+      </c>
+      <c r="M22">
+        <v>26.90472493904822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.33586617606149</v>
+        <v>16.28166974114235</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.71187036739117</v>
+        <v>12.59795988405164</v>
       </c>
       <c r="E23">
-        <v>16.19874261756484</v>
+        <v>15.87666471015857</v>
       </c>
       <c r="F23">
-        <v>86.8252593313984</v>
+        <v>86.41653055536179</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.877041544078545</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.875255950043277</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>48.32927851090156</v>
+        <v>9.713486191727652</v>
       </c>
       <c r="K23">
-        <v>30.00383803201894</v>
+        <v>47.91401933711145</v>
       </c>
       <c r="L23">
-        <v>26.42868462152259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>29.7710905410777</v>
+      </c>
+      <c r="M23">
+        <v>26.25200628747075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88765718364463</v>
+        <v>14.84094201798085</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.38515321754669</v>
+        <v>11.29008449113427</v>
       </c>
       <c r="E24">
-        <v>14.79214842802173</v>
+        <v>14.48047040697864</v>
       </c>
       <c r="F24">
-        <v>78.3757104083077</v>
+        <v>78.08333281856764</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.924387215135659</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.399103650422363</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>43.67175807443358</v>
+        <v>9.242144662654773</v>
       </c>
       <c r="K24">
-        <v>27.08721289801625</v>
+        <v>43.29799261929277</v>
       </c>
       <c r="L24">
-        <v>23.96893790904441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>26.87956057858042</v>
+      </c>
+      <c r="M24">
+        <v>23.80927753877643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28048311295467</v>
+        <v>13.2408144373331</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.03726369157286</v>
+        <v>10.04334244614276</v>
       </c>
       <c r="E25">
-        <v>13.35702939625643</v>
+        <v>13.05073474778092</v>
       </c>
       <c r="F25">
-        <v>69.53490609372349</v>
+        <v>69.43198513817197</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.971892145376945</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.947526408188942</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>38.66777629700896</v>
+        <v>8.793489112106039</v>
       </c>
       <c r="K25">
-        <v>23.95777283451375</v>
+        <v>38.33082365981558</v>
       </c>
       <c r="L25">
-        <v>21.30395823923322</v>
+        <v>23.77241389937139</v>
+      </c>
+      <c r="M25">
+        <v>21.15878917816953</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.002739900673</v>
+        <v>17.39018129603788</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.165834801947643</v>
+        <v>4.167061898942541</v>
       </c>
       <c r="E2">
-        <v>12.01534799781782</v>
+        <v>32.83589385401691</v>
       </c>
       <c r="F2">
-        <v>63.26733723124644</v>
+        <v>43.90555618839274</v>
       </c>
       <c r="G2">
-        <v>2.005524223495765</v>
+        <v>1.983167772216734</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.48973694301154</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>34.57369374651765</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>21.42575084313618</v>
+        <v>11.05676439240401</v>
       </c>
       <c r="M2">
-        <v>19.14206729445971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.12122503269948</v>
+      </c>
+      <c r="N2">
+        <v>13.35477864642078</v>
+      </c>
+      <c r="O2">
+        <v>34.41940346890042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.1786599777658</v>
+        <v>16.41651820497442</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.573987689607304</v>
+        <v>4.022509491061053</v>
       </c>
       <c r="E3">
-        <v>11.3096134168222</v>
+        <v>30.85531798139505</v>
       </c>
       <c r="F3">
-        <v>59.06208650111263</v>
+        <v>40.81595410393027</v>
       </c>
       <c r="G3">
-        <v>2.028040845833692</v>
+        <v>1.999535138456205</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.292708568345692</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>31.92885406125174</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>19.77576897962636</v>
+        <v>10.29573396507806</v>
       </c>
       <c r="M3">
-        <v>17.71740960924777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.38680494016981</v>
+      </c>
+      <c r="N3">
+        <v>13.5826248647713</v>
+      </c>
+      <c r="O3">
+        <v>32.06250822908202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.72683106797364</v>
+        <v>15.80156950318693</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.210217714985474</v>
+        <v>3.940803190205845</v>
       </c>
       <c r="E4">
-        <v>10.87095832987968</v>
+        <v>29.59576430047783</v>
       </c>
       <c r="F4">
-        <v>56.45602638227424</v>
+        <v>38.94011326816251</v>
       </c>
       <c r="G4">
-        <v>2.041866920138841</v>
+        <v>2.009704710888669</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.174276354638426</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>30.24735120797432</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>18.72761814786196</v>
+        <v>9.806580289750983</v>
       </c>
       <c r="M4">
-        <v>16.80983208075665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.95298273321746</v>
+      </c>
+      <c r="N4">
+        <v>13.72576807918077</v>
+      </c>
+      <c r="O4">
+        <v>30.64826161688591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.54024709570999</v>
+        <v>15.54685560850598</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.061717528740749</v>
+        <v>3.909186655515932</v>
       </c>
       <c r="E5">
-        <v>10.69048482773225</v>
+        <v>29.07131844337292</v>
       </c>
       <c r="F5">
-        <v>55.38705427246226</v>
+        <v>38.16610735672315</v>
       </c>
       <c r="G5">
-        <v>2.047518138655956</v>
+        <v>2.013886556939465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.126438718630798</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>29.54654782594627</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>18.29097444108626</v>
+        <v>9.601622034841521</v>
       </c>
       <c r="M5">
-        <v>16.43120156649269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.77436488918926</v>
+      </c>
+      <c r="N5">
+        <v>13.78496534904803</v>
+      </c>
+      <c r="O5">
+        <v>30.06641983206054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.50911891242973</v>
+        <v>15.50431859636253</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.03704000996998</v>
+        <v>3.904035534820732</v>
       </c>
       <c r="E6">
-        <v>10.66040426253937</v>
+        <v>28.98355533891461</v>
       </c>
       <c r="F6">
-        <v>55.20911269221588</v>
+        <v>38.03700749454981</v>
       </c>
       <c r="G6">
-        <v>2.048457985566424</v>
+        <v>2.014583426590695</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.118515406402805</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>29.42920997252684</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>18.2178769982001</v>
+        <v>9.567245952735504</v>
       </c>
       <c r="M6">
-        <v>16.36778563205288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.74460019891842</v>
+      </c>
+      <c r="N6">
+        <v>13.79484861476038</v>
+      </c>
+      <c r="O6">
+        <v>29.96947548581318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.72432458715726</v>
+        <v>15.79815071964223</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.208216210661751</v>
+        <v>3.940370118758524</v>
       </c>
       <c r="E7">
-        <v>10.8685317898677</v>
+        <v>29.5887368889627</v>
       </c>
       <c r="F7">
-        <v>56.44163899560112</v>
+        <v>38.92971350311512</v>
       </c>
       <c r="G7">
-        <v>2.041943045440555</v>
+        <v>2.009760946960967</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.173629736468495</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>30.23796433911838</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>18.72176878740288</v>
+        <v>9.803839071998873</v>
       </c>
       <c r="M7">
-        <v>16.80476195204297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.95058101408276</v>
+      </c>
+      <c r="N7">
+        <v>13.72656286941089</v>
+      </c>
+      <c r="O7">
+        <v>30.64043692499493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.70293533822796</v>
+        <v>17.05810660073649</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.961717103620098</v>
+        <v>4.115699307431902</v>
       </c>
       <c r="E8">
-        <v>11.77285925605747</v>
+        <v>32.16183635288786</v>
       </c>
       <c r="F8">
-        <v>61.82161905380351</v>
+        <v>42.81308369594275</v>
       </c>
       <c r="G8">
-        <v>2.013298808491562</v>
+        <v>1.98879116008619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.421130284563617</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>33.67297897991611</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>20.86365663289838</v>
+        <v>10.79882186594124</v>
       </c>
       <c r="M8">
-        <v>18.65731423596155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.84303082541723</v>
+      </c>
+      <c r="N8">
+        <v>13.43269804466852</v>
+      </c>
+      <c r="O8">
+        <v>33.5527042389019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.78803136151709</v>
+        <v>19.38823919909073</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.44895788757765</v>
+        <v>4.53669016345134</v>
       </c>
       <c r="E9">
-        <v>13.52716122236082</v>
+        <v>36.87986711989628</v>
       </c>
       <c r="F9">
-        <v>72.2597010264671</v>
+        <v>50.52074212243063</v>
       </c>
       <c r="G9">
-        <v>1.95619044401828</v>
+        <v>1.948225105329356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.939201913950987</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>40.01366210916378</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>24.82451817492259</v>
+        <v>12.5830543099629</v>
       </c>
       <c r="M9">
-        <v>22.05896211578404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.09835389859003</v>
+      </c>
+      <c r="N9">
+        <v>12.87960186192953</v>
+      </c>
+      <c r="O9">
+        <v>39.68337825344586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.23437720169253</v>
+        <v>21.07753393428906</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.64033811130613</v>
+        <v>5.092645616528569</v>
       </c>
       <c r="E10">
-        <v>14.850348255565</v>
+        <v>40.18120238539155</v>
       </c>
       <c r="F10">
-        <v>80.31536028711636</v>
+        <v>55.99163304320219</v>
       </c>
       <c r="G10">
-        <v>1.911923854516693</v>
+        <v>1.918092798248675</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.363798646887982</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>44.54313235226742</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>27.6591951134771</v>
+        <v>13.80351049204212</v>
       </c>
       <c r="M10">
-        <v>24.47033488144076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.66918458215808</v>
+      </c>
+      <c r="N10">
+        <v>12.48307240213336</v>
+      </c>
+      <c r="O10">
+        <v>44.03271446838438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.88054844594989</v>
+        <v>21.88826532500502</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.22658945301745</v>
+        <v>5.346159378737475</v>
       </c>
       <c r="E11">
-        <v>15.47594302359961</v>
+        <v>41.6587853552114</v>
       </c>
       <c r="F11">
-        <v>84.05128935463702</v>
+        <v>58.45855940523762</v>
       </c>
       <c r="G11">
-        <v>1.890708599705412</v>
+        <v>1.904120660000761</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.57482537543093</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>46.6125182751584</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>28.95549350757949</v>
+        <v>14.34236445303926</v>
       </c>
       <c r="M11">
-        <v>25.56556241135383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.35961431482098</v>
+      </c>
+      <c r="N11">
+        <v>12.30358332601105</v>
+      </c>
+      <c r="O11">
+        <v>45.99344760923314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.12435855024673</v>
+        <v>22.19151264364248</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.45160154575196</v>
+        <v>5.4425718985741</v>
       </c>
       <c r="E12">
-        <v>15.71831503392625</v>
+        <v>42.21614964927276</v>
       </c>
       <c r="F12">
-        <v>85.48457875481844</v>
+        <v>59.39182141679302</v>
       </c>
       <c r="G12">
-        <v>1.882448788034045</v>
+        <v>1.898770917949835</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.658366783425432</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>47.40195470463311</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>29.45017493287247</v>
+        <v>14.54441361635035</v>
       </c>
       <c r="M12">
-        <v>25.98216100370655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.61797103021891</v>
+      </c>
+      <c r="N12">
+        <v>12.23561164956034</v>
+      </c>
+      <c r="O12">
+        <v>46.73519363941537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.07187268762744</v>
+        <v>22.12636403078714</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.40297754996912</v>
+        <v>5.421783344520679</v>
       </c>
       <c r="E13">
-        <v>15.66583015825774</v>
+        <v>42.09618255886382</v>
       </c>
       <c r="F13">
-        <v>85.17489905402694</v>
+        <v>59.19082528688777</v>
       </c>
       <c r="G13">
-        <v>1.88423917046273</v>
+        <v>1.899926079379808</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.640191522579187</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>47.23158618630537</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>29.34341063037422</v>
+        <v>14.50098142293511</v>
       </c>
       <c r="M13">
-        <v>25.89231409889595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.56245998191203</v>
+      </c>
+      <c r="N13">
+        <v>12.25025314943485</v>
+      </c>
+      <c r="O13">
+        <v>46.57544420311089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90061879347957</v>
+        <v>21.91328684797698</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.24503051090729</v>
+        <v>5.354080879841243</v>
       </c>
       <c r="E14">
-        <v>15.49575851900039</v>
+        <v>41.70467456428287</v>
       </c>
       <c r="F14">
-        <v>84.16877506658014</v>
+        <v>58.53534277918983</v>
       </c>
       <c r="G14">
-        <v>1.89003409510422</v>
+        <v>1.903681848276809</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.581617987711914</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>46.6773172140776</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>28.9960950403845</v>
+        <v>14.35902503620434</v>
       </c>
       <c r="M14">
-        <v>25.59978405269823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.38092902595033</v>
+      </c>
+      <c r="N14">
+        <v>12.29799218603469</v>
+      </c>
+      <c r="O14">
+        <v>46.05447423675046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79563519482327</v>
+        <v>21.78229240703882</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.14872880290681</v>
+        <v>5.312675879635051</v>
       </c>
       <c r="E15">
-        <v>15.39237321249795</v>
+        <v>41.46462808709015</v>
       </c>
       <c r="F15">
-        <v>83.5552170143466</v>
+        <v>58.13379853273422</v>
       </c>
       <c r="G15">
-        <v>1.893551648216077</v>
+        <v>1.905974009373949</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.546251551904488</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>46.33873086771087</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>28.78395111412566</v>
+        <v>14.2718234105875</v>
       </c>
       <c r="M15">
-        <v>25.42091897485503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.26934575572074</v>
+      </c>
+      <c r="N15">
+        <v>12.32722887373273</v>
+      </c>
+      <c r="O15">
+        <v>45.73533060566579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.19197464874152</v>
+        <v>21.02400524956107</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.60235455308957</v>
+        <v>5.076116151409673</v>
       </c>
       <c r="E16">
-        <v>14.81009941032785</v>
+        <v>40.0842562723486</v>
       </c>
       <c r="F16">
-        <v>80.07328447739856</v>
+        <v>55.83015214546493</v>
       </c>
       <c r="G16">
-        <v>1.913283129232545</v>
+        <v>1.918998918105276</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.350448672004106</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>44.40842260718462</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>27.57483454978918</v>
+        <v>13.76799422330002</v>
       </c>
       <c r="M16">
-        <v>24.39888805294386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.62360802585237</v>
+      </c>
+      <c r="N16">
+        <v>12.49480987165909</v>
+      </c>
+      <c r="O16">
+        <v>43.90436287594236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81912819342581</v>
+        <v>20.55175443528341</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.27080510045092</v>
+        <v>4.931357768286766</v>
       </c>
       <c r="E17">
-        <v>14.4601922351983</v>
+        <v>39.23207163491114</v>
       </c>
       <c r="F17">
-        <v>77.96049324530009</v>
+        <v>54.41276406692687</v>
       </c>
       <c r="G17">
-        <v>1.925068632805391</v>
+        <v>1.926908151830411</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.235541829330087</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>43.22926164113643</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>26.83653332881801</v>
+        <v>13.45494994442942</v>
       </c>
       <c r="M17">
-        <v>23.77274501886995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.22152932986698</v>
+      </c>
+      <c r="N17">
+        <v>12.59776004664148</v>
+      </c>
+      <c r="O17">
+        <v>42.7777192841594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.60350680496995</v>
+        <v>20.30514462025486</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.08100352917709</v>
+        <v>4.848130311911734</v>
       </c>
       <c r="E18">
-        <v>14.26100294736775</v>
+        <v>38.73954163754072</v>
       </c>
       <c r="F18">
-        <v>76.75134731676881</v>
+        <v>53.59530404555725</v>
       </c>
       <c r="G18">
-        <v>1.931751270287179</v>
+        <v>1.931433890546488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.171051206051379</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>42.55153361007367</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>26.41230651223582</v>
+        <v>13.27333273481948</v>
       </c>
       <c r="M18">
-        <v>23.41228266064432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.98796463470613</v>
+      </c>
+      <c r="N18">
+        <v>12.65706784949382</v>
+      </c>
+      <c r="O18">
+        <v>42.12789554311179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.53027966567507</v>
+        <v>20.22286405772291</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.01691769180364</v>
+        <v>4.819948032972365</v>
       </c>
       <c r="E19">
-        <v>14.19386533011549</v>
+        <v>38.57233683455984</v>
       </c>
       <c r="F19">
-        <v>76.34279013383357</v>
+        <v>53.31808676072538</v>
       </c>
       <c r="G19">
-        <v>1.93399916570901</v>
+        <v>1.932962757855346</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.149464719235935</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>42.3220386061427</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>26.26867290559797</v>
+        <v>13.21156258393278</v>
       </c>
       <c r="M19">
-        <v>23.29012833550918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.9084783745706</v>
+      </c>
+      <c r="N19">
+        <v>12.67716805147248</v>
+      </c>
+      <c r="O19">
+        <v>41.90751764974534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85893440107288</v>
+        <v>20.60230327439011</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.30599731295394</v>
+        <v>4.946761943066106</v>
       </c>
       <c r="E20">
-        <v>14.49721392962736</v>
+        <v>39.32302562209028</v>
       </c>
       <c r="F20">
-        <v>78.18472432351265</v>
+        <v>54.56386246338588</v>
       </c>
       <c r="G20">
-        <v>1.923824423261633</v>
+        <v>1.92606876175199</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.247601790586044</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>43.35470651449685</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>26.91506549963717</v>
+        <v>13.48843348162578</v>
       </c>
       <c r="M20">
-        <v>23.83941934622429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.26456680540305</v>
+      </c>
+      <c r="N20">
+        <v>12.58679199515479</v>
+      </c>
+      <c r="O20">
+        <v>42.89782782374539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.95093617161374</v>
+        <v>21.97597180403369</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.29132708373443</v>
+        <v>5.373952550331962</v>
       </c>
       <c r="E21">
-        <v>15.5455433941144</v>
+        <v>41.81971635579151</v>
       </c>
       <c r="F21">
-        <v>84.46371099128808</v>
+        <v>58.72787785275895</v>
       </c>
       <c r="G21">
-        <v>1.888338822692203</v>
+        <v>1.902580473474478</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.598713304574744</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>46.8399171778327</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>29.09797901305651</v>
+        <v>14.40077227478767</v>
       </c>
       <c r="M21">
-        <v>25.68563600093184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.4343296150617</v>
+      </c>
+      <c r="N21">
+        <v>12.28397136686779</v>
+      </c>
+      <c r="O21">
+        <v>46.2074989924712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.66011051004644</v>
+        <v>22.85204821465188</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.95401094476233</v>
+        <v>5.655764393340631</v>
       </c>
       <c r="E22">
-        <v>16.26426374801073</v>
+        <v>43.43973353279064</v>
       </c>
       <c r="F22">
-        <v>88.68230551475985</v>
+        <v>61.44549974532418</v>
       </c>
       <c r="G22">
-        <v>1.863773512184036</v>
+        <v>1.886873281396409</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.850203213758384</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>49.15509242482403</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>30.54900393893605</v>
+        <v>14.98558618415921</v>
       </c>
       <c r="M22">
-        <v>26.90472493904822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19.18104283535793</v>
+      </c>
+      <c r="N22">
+        <v>12.0859560400056</v>
+      </c>
+      <c r="O22">
+        <v>48.3674569774035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.28166974114235</v>
+        <v>22.38632485113341</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.59795988405164</v>
+        <v>5.50498667851603</v>
       </c>
       <c r="E23">
-        <v>15.87666471015857</v>
+        <v>42.57563425972918</v>
       </c>
       <c r="F23">
-        <v>86.41653055536179</v>
+        <v>59.99450152378042</v>
       </c>
       <c r="G23">
-        <v>1.877041544078545</v>
+        <v>1.895297326795315</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.713486191727652</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>47.91401933711145</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>29.7710905410777</v>
+        <v>14.67437126878196</v>
       </c>
       <c r="M23">
-        <v>26.25200628747075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.78398833034274</v>
+      </c>
+      <c r="N23">
+        <v>12.19170262849923</v>
+      </c>
+      <c r="O23">
+        <v>47.21419819344934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.84094201798085</v>
+        <v>20.57945894754726</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.29008449113427</v>
+        <v>4.939797751329819</v>
       </c>
       <c r="E24">
-        <v>14.48047040697864</v>
+        <v>39.28191351009696</v>
       </c>
       <c r="F24">
-        <v>78.08333281856764</v>
+        <v>54.49555908921414</v>
       </c>
       <c r="G24">
-        <v>1.924387215135659</v>
+        <v>1.926448315120518</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.242144662654773</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>43.29799261929277</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>26.87956057858042</v>
+        <v>13.47330071983238</v>
       </c>
       <c r="M24">
-        <v>23.80927753877643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.24511707902525</v>
+      </c>
+      <c r="N24">
+        <v>12.59175026679988</v>
+      </c>
+      <c r="O24">
+        <v>42.84353342900354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.2408144373331</v>
+        <v>18.77334839103275</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.04334244614276</v>
+        <v>4.403497846635883</v>
       </c>
       <c r="E25">
-        <v>13.05073474778092</v>
+        <v>35.63564064350226</v>
       </c>
       <c r="F25">
-        <v>69.43198513817197</v>
+        <v>48.47473840628658</v>
       </c>
       <c r="G25">
-        <v>1.971892145376945</v>
+        <v>1.959201380220276</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.793489112106039</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>38.33082365981558</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>23.77241389937139</v>
+        <v>12.11719748834125</v>
       </c>
       <c r="M25">
-        <v>21.15878917816953</v>
+        <v>15.49633345609728</v>
+      </c>
+      <c r="N25">
+        <v>13.02714696844167</v>
+      </c>
+      <c r="O25">
+        <v>38.0560826653768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.39018129603788</v>
+        <v>8.454706560818627</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.167061898942541</v>
+        <v>6.608555573813913</v>
       </c>
       <c r="E2">
-        <v>32.83589385401691</v>
+        <v>9.695452712942361</v>
       </c>
       <c r="F2">
-        <v>43.90555618839274</v>
+        <v>43.51206941612953</v>
       </c>
       <c r="G2">
-        <v>1.983167772216734</v>
+        <v>2.119835463594475</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.26522736773432</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.45062207993844</v>
       </c>
       <c r="L2">
-        <v>11.05676439240401</v>
+        <v>7.537987441332595</v>
       </c>
       <c r="M2">
-        <v>14.12122503269948</v>
+        <v>9.249475953109453</v>
       </c>
       <c r="N2">
-        <v>13.35477864642078</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>34.41940346890042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.41651820497442</v>
+        <v>8.08920200715434</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.022509491061053</v>
+        <v>6.599945711797113</v>
       </c>
       <c r="E3">
-        <v>30.85531798139505</v>
+        <v>9.384677231909649</v>
       </c>
       <c r="F3">
-        <v>40.81595410393027</v>
+        <v>41.71581210371924</v>
       </c>
       <c r="G3">
-        <v>1.999535138456205</v>
+        <v>2.130330686152074</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.69508695983249</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.37146724241908</v>
       </c>
       <c r="L3">
-        <v>10.29573396507806</v>
+        <v>7.323800458017796</v>
       </c>
       <c r="M3">
-        <v>13.38680494016981</v>
+        <v>9.053647566826175</v>
       </c>
       <c r="N3">
-        <v>13.5826248647713</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>32.06250822908202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80156950318693</v>
+        <v>7.862814786948213</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.940803190205845</v>
+        <v>6.595572267986941</v>
       </c>
       <c r="E4">
-        <v>29.59576430047783</v>
+        <v>9.191211855734194</v>
       </c>
       <c r="F4">
-        <v>38.94011326816251</v>
+        <v>40.60458343022748</v>
       </c>
       <c r="G4">
-        <v>2.009704710888669</v>
+        <v>2.136925441527406</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.35182147490466</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.6757738198119</v>
       </c>
       <c r="L4">
-        <v>9.806580289750983</v>
+        <v>7.194542924519793</v>
       </c>
       <c r="M4">
-        <v>12.95298273321746</v>
+        <v>8.937522124991624</v>
       </c>
       <c r="N4">
-        <v>13.72576807918077</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>30.64826161688591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.54685560850598</v>
+        <v>7.770215361791139</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.909186655515932</v>
+        <v>6.594008030099532</v>
       </c>
       <c r="E5">
-        <v>29.07131844337292</v>
+        <v>9.111670843300999</v>
       </c>
       <c r="F5">
-        <v>38.16610735672315</v>
+        <v>40.15007568708802</v>
       </c>
       <c r="G5">
-        <v>2.013886556939465</v>
+        <v>2.139653109439441</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.2136565530887</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.38382103128994</v>
       </c>
       <c r="L5">
-        <v>9.601622034841521</v>
+        <v>7.142479202071768</v>
       </c>
       <c r="M5">
-        <v>12.77436488918926</v>
+        <v>8.891267431835093</v>
       </c>
       <c r="N5">
-        <v>13.78496534904803</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>30.06641983206054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.50431859636253</v>
+        <v>7.754823206336706</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.904035534820732</v>
+        <v>6.593761128789144</v>
       </c>
       <c r="E6">
-        <v>28.98355533891461</v>
+        <v>9.098419807584749</v>
       </c>
       <c r="F6">
-        <v>38.03700749454981</v>
+        <v>40.07451757872175</v>
       </c>
       <c r="G6">
-        <v>2.014583426590695</v>
+        <v>2.140108533758477</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.19081844700428</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.33482833412761</v>
       </c>
       <c r="L6">
-        <v>9.567245952735504</v>
+        <v>7.133872194504103</v>
       </c>
       <c r="M6">
-        <v>12.74460019891842</v>
+        <v>8.883652290550033</v>
       </c>
       <c r="N6">
-        <v>13.79484861476038</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>29.96947548581318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.79815071964223</v>
+        <v>7.861567143445086</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.940370118758524</v>
+        <v>6.595550304376352</v>
       </c>
       <c r="E7">
-        <v>29.5887368889627</v>
+        <v>9.19014202306391</v>
       </c>
       <c r="F7">
-        <v>38.92971350311512</v>
+        <v>40.59845994877237</v>
       </c>
       <c r="G7">
-        <v>2.009760946960967</v>
+        <v>2.136962061824174</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.34995116374692</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.67187083223208</v>
       </c>
       <c r="L7">
-        <v>9.803839071998873</v>
+        <v>7.193838247279127</v>
       </c>
       <c r="M7">
-        <v>12.95058101408276</v>
+        <v>8.936893953211849</v>
       </c>
       <c r="N7">
-        <v>13.72656286941089</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>30.64043692499493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.05810660073649</v>
+        <v>8.329172472696534</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.115699307431902</v>
+        <v>6.605390163011084</v>
       </c>
       <c r="E8">
-        <v>32.16183635288786</v>
+        <v>9.588821987280983</v>
       </c>
       <c r="F8">
-        <v>42.81308369594275</v>
+        <v>42.89467523861584</v>
       </c>
       <c r="G8">
-        <v>1.98879116008619</v>
+        <v>2.123424433510588</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.06723443907262</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.08531446475092</v>
       </c>
       <c r="L8">
-        <v>10.79882186594124</v>
+        <v>7.463692674629216</v>
       </c>
       <c r="M8">
-        <v>13.84303082541723</v>
+        <v>9.181120184530059</v>
       </c>
       <c r="N8">
-        <v>13.43269804466852</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>33.5527042389019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.38823919909073</v>
+        <v>9.224975970939965</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.53669016345134</v>
+        <v>6.632496606680059</v>
       </c>
       <c r="E9">
-        <v>36.87986711989628</v>
+        <v>10.35182720722379</v>
       </c>
       <c r="F9">
-        <v>50.52074212243063</v>
+        <v>47.31717646277011</v>
       </c>
       <c r="G9">
-        <v>1.948225105329356</v>
+        <v>2.097955215841401</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.52780843695382</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.60102235775597</v>
       </c>
       <c r="L9">
-        <v>12.5830543099629</v>
+        <v>8.009099104891501</v>
       </c>
       <c r="M9">
-        <v>16.09835389859003</v>
+        <v>9.691296992095372</v>
       </c>
       <c r="N9">
-        <v>12.87960186192953</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>39.68337825344586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.07753393428906</v>
+        <v>9.864202231606692</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.092645616528569</v>
+        <v>6.658033641627316</v>
       </c>
       <c r="E10">
-        <v>40.18120238539155</v>
+        <v>10.9049593301446</v>
       </c>
       <c r="F10">
-        <v>55.99163304320219</v>
+        <v>50.50444781035086</v>
       </c>
       <c r="G10">
-        <v>1.918092798248675</v>
+        <v>2.07971900161354</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>31.63462167862949</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.30313665399725</v>
       </c>
       <c r="L10">
-        <v>13.80351049204212</v>
+        <v>8.417939546131745</v>
       </c>
       <c r="M10">
-        <v>17.66918458215808</v>
+        <v>10.08352340866721</v>
       </c>
       <c r="N10">
-        <v>12.48307240213336</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>44.03271446838438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.88826532500502</v>
+        <v>10.15002743379036</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.346159378737475</v>
+        <v>6.671086481601924</v>
       </c>
       <c r="E11">
-        <v>41.6587853552114</v>
+        <v>11.1561655285292</v>
       </c>
       <c r="F11">
-        <v>58.45855940523762</v>
+        <v>51.94009238412299</v>
       </c>
       <c r="G11">
-        <v>1.904120660000761</v>
+        <v>2.071480288293267</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>32.14592722127945</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.04820670744326</v>
       </c>
       <c r="L11">
-        <v>14.34236445303926</v>
+        <v>8.605488973709532</v>
       </c>
       <c r="M11">
-        <v>18.35961431482098</v>
+        <v>10.26547836827704</v>
       </c>
       <c r="N11">
-        <v>12.30358332601105</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>45.99344760923314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.19151264364248</v>
+        <v>10.25750175278526</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.4425718985741</v>
+        <v>6.676255914405105</v>
       </c>
       <c r="E12">
-        <v>42.21614964927276</v>
+        <v>11.25135455180556</v>
       </c>
       <c r="F12">
-        <v>59.39182141679302</v>
+        <v>52.48173389960616</v>
       </c>
       <c r="G12">
-        <v>1.898770917949835</v>
+        <v>2.068364345154827</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>32.34072986632643</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.32637306183255</v>
       </c>
       <c r="L12">
-        <v>14.54441361635035</v>
+        <v>8.676729703663556</v>
       </c>
       <c r="M12">
-        <v>18.61797103021891</v>
+        <v>10.33487436048209</v>
       </c>
       <c r="N12">
-        <v>12.23561164956034</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>46.73519363941537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.12636403078714</v>
+        <v>10.23438966604854</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.421783344520679</v>
+        <v>6.675132161075899</v>
       </c>
       <c r="E13">
-        <v>42.09618255886382</v>
+        <v>11.23084890276161</v>
       </c>
       <c r="F13">
-        <v>59.19082528688777</v>
+        <v>52.36516912365202</v>
       </c>
       <c r="G13">
-        <v>1.899926079379808</v>
+        <v>2.069035321345732</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>32.29872184702332</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.26663786596501</v>
       </c>
       <c r="L13">
-        <v>14.50098142293511</v>
+        <v>8.66137692028382</v>
       </c>
       <c r="M13">
-        <v>18.56245998191203</v>
+        <v>10.31990686842331</v>
       </c>
       <c r="N13">
-        <v>12.25025314943485</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>46.57544420311089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.91328684797698</v>
+        <v>10.15888487981328</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.354080879841243</v>
+        <v>6.671507108983678</v>
       </c>
       <c r="E14">
-        <v>41.70467456428287</v>
+        <v>11.16399474548148</v>
       </c>
       <c r="F14">
-        <v>58.53534277918983</v>
+        <v>51.9846931413494</v>
       </c>
       <c r="G14">
-        <v>1.903681848276809</v>
+        <v>2.071223886708085</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>32.16192963222784</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.07116989877349</v>
       </c>
       <c r="L14">
-        <v>14.35902503620434</v>
+        <v>8.611345574595413</v>
       </c>
       <c r="M14">
-        <v>18.38092902595033</v>
+        <v>10.27117777504916</v>
       </c>
       <c r="N14">
-        <v>12.29799218603469</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>46.05447423675046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.78229240703882</v>
+        <v>10.11253574826144</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.312675879635051</v>
+        <v>6.669316806849522</v>
       </c>
       <c r="E15">
-        <v>41.46462808709015</v>
+        <v>11.12305683997725</v>
       </c>
       <c r="F15">
-        <v>58.13379853273422</v>
+        <v>51.75138244457062</v>
       </c>
       <c r="G15">
-        <v>1.905974009373949</v>
+        <v>2.072564813942085</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>32.07829658728487</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.95092959682795</v>
       </c>
       <c r="L15">
-        <v>14.2718234105875</v>
+        <v>8.580728599719752</v>
       </c>
       <c r="M15">
-        <v>18.26934575572074</v>
+        <v>10.24139381175625</v>
       </c>
       <c r="N15">
-        <v>12.32722887373273</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>45.73533060566579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.02400524956107</v>
+        <v>9.845418505587663</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.076116151409673</v>
+        <v>6.657211171471049</v>
       </c>
       <c r="E16">
-        <v>40.0842562723486</v>
+        <v>10.88854399670887</v>
       </c>
       <c r="F16">
-        <v>55.83015214546493</v>
+        <v>50.41033962893762</v>
       </c>
       <c r="G16">
-        <v>1.918998918105276</v>
+        <v>2.080258210906603</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>31.60136835968025</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.25387528277872</v>
       </c>
       <c r="L16">
-        <v>13.76799422330002</v>
+        <v>8.405713542027323</v>
       </c>
       <c r="M16">
-        <v>17.62360802585237</v>
+        <v>10.07170186425523</v>
       </c>
       <c r="N16">
-        <v>12.49480987165909</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>43.90436287594236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.55175443528341</v>
+        <v>9.680239742294173</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.931357768286766</v>
+        <v>6.650166155568445</v>
       </c>
       <c r="E17">
-        <v>39.23207163491114</v>
+        <v>10.7446514913581</v>
       </c>
       <c r="F17">
-        <v>54.41276406692687</v>
+        <v>49.58400094504438</v>
       </c>
       <c r="G17">
-        <v>1.926908151830411</v>
+        <v>2.084989553896791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>31.31082377593771</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.81892272203184</v>
       </c>
       <c r="L17">
-        <v>13.45494994442942</v>
+        <v>8.298741162557761</v>
       </c>
       <c r="M17">
-        <v>17.22152932986698</v>
+        <v>9.968492817580676</v>
       </c>
       <c r="N17">
-        <v>12.59776004664148</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>42.7777192841594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.30514462025486</v>
+        <v>9.584767899305294</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.848130311911734</v>
+        <v>6.646247875873613</v>
       </c>
       <c r="E18">
-        <v>38.73954163754072</v>
+        <v>10.66184052163149</v>
       </c>
       <c r="F18">
-        <v>53.59530404555725</v>
+        <v>49.10736166299026</v>
       </c>
       <c r="G18">
-        <v>1.931433890546488</v>
+        <v>2.087716553021513</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>31.14444057209452</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.56598318592771</v>
       </c>
       <c r="L18">
-        <v>13.27333273481948</v>
+        <v>8.237360521488972</v>
       </c>
       <c r="M18">
-        <v>16.98796463470613</v>
+        <v>9.909462261626386</v>
       </c>
       <c r="N18">
-        <v>12.65706784949382</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>42.12789554311179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.22286405772291</v>
+        <v>9.552364611984268</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.819948032972365</v>
+        <v>6.644943621406441</v>
       </c>
       <c r="E19">
-        <v>38.57233683455984</v>
+        <v>10.63379057003389</v>
       </c>
       <c r="F19">
-        <v>53.31808676072538</v>
+        <v>48.94574800416063</v>
       </c>
       <c r="G19">
-        <v>1.932962757855346</v>
+        <v>2.088640962773434</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>31.0882300873367</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.4798605512293</v>
       </c>
       <c r="L19">
-        <v>13.21156258393278</v>
+        <v>8.216603693598087</v>
       </c>
       <c r="M19">
-        <v>16.9084783745706</v>
+        <v>9.889533203467572</v>
       </c>
       <c r="N19">
-        <v>12.67716805147248</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>41.90751764974534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.60230327439011</v>
+        <v>9.697871876406809</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.946761943066106</v>
+        <v>6.650902120286645</v>
       </c>
       <c r="E20">
-        <v>39.32302562209028</v>
+        <v>10.75997322632617</v>
       </c>
       <c r="F20">
-        <v>54.56386246338588</v>
+        <v>49.67210593987766</v>
       </c>
       <c r="G20">
-        <v>1.92606876175199</v>
+        <v>2.084485338657859</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>31.34167679911831</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.86550889928039</v>
       </c>
       <c r="L20">
-        <v>13.48843348162578</v>
+        <v>8.310113411796079</v>
       </c>
       <c r="M20">
-        <v>17.26456680540305</v>
+        <v>9.97944530540792</v>
       </c>
       <c r="N20">
-        <v>12.58679199515479</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>42.89782782374539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.97597180403369</v>
+        <v>10.18108342121261</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.373952550331962</v>
+        <v>6.672565552852812</v>
       </c>
       <c r="E21">
-        <v>41.81971635579151</v>
+        <v>11.18362863834527</v>
       </c>
       <c r="F21">
-        <v>58.72787785275895</v>
+        <v>52.09650173945776</v>
       </c>
       <c r="G21">
-        <v>1.902580473474478</v>
+        <v>2.070580983852321</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>32.20207614296076</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.12868952882623</v>
       </c>
       <c r="L21">
-        <v>14.40077227478767</v>
+        <v>8.626035011871508</v>
       </c>
       <c r="M21">
-        <v>18.4343296150617</v>
+        <v>10.28547736318925</v>
       </c>
       <c r="N21">
-        <v>12.28397136686779</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>46.2074989924712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.85204821465188</v>
+        <v>10.50545270228307</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.655764393340631</v>
+        <v>6.688055756732633</v>
       </c>
       <c r="E22">
-        <v>43.43973353279064</v>
+        <v>11.46095161020377</v>
       </c>
       <c r="F22">
-        <v>61.44549974532418</v>
+        <v>53.66938673095676</v>
       </c>
       <c r="G22">
-        <v>1.886873281396409</v>
+        <v>2.061513883905867</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.77133391102406</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.9312039997142</v>
       </c>
       <c r="L22">
-        <v>14.98558618415921</v>
+        <v>8.833795558182082</v>
       </c>
       <c r="M22">
-        <v>19.18104283535793</v>
+        <v>10.48836405443727</v>
       </c>
       <c r="N22">
-        <v>12.0859560400056</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>48.3674569774035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.38632485113341</v>
+        <v>10.32668228060685</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.50498667851603</v>
+        <v>6.679659207074748</v>
       </c>
       <c r="E23">
-        <v>42.57563425972918</v>
+        <v>11.31285215582305</v>
       </c>
       <c r="F23">
-        <v>59.99450152378042</v>
+        <v>52.83092814238191</v>
       </c>
       <c r="G23">
-        <v>1.895297326795315</v>
+        <v>2.066352889913889</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.46684958278882</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.50491349829823</v>
       </c>
       <c r="L23">
-        <v>14.67437126878196</v>
+        <v>8.722790688347356</v>
       </c>
       <c r="M23">
-        <v>18.78398833034274</v>
+        <v>10.37981865105162</v>
       </c>
       <c r="N23">
-        <v>12.19170262849923</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>47.21419819344934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.57945894754726</v>
+        <v>9.68990196817661</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.939797751329819</v>
+        <v>6.650568981002991</v>
       </c>
       <c r="E24">
-        <v>39.28191351009696</v>
+        <v>10.75304654442719</v>
       </c>
       <c r="F24">
-        <v>54.49555908921414</v>
+        <v>49.63227855205195</v>
       </c>
       <c r="G24">
-        <v>1.926448315120518</v>
+        <v>2.084713272596863</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>31.32772611209526</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.84445627446448</v>
       </c>
       <c r="L24">
-        <v>13.47330071983238</v>
+        <v>8.304971646055611</v>
       </c>
       <c r="M24">
-        <v>17.24511707902525</v>
+        <v>9.974492732301409</v>
       </c>
       <c r="N24">
-        <v>12.59175026679988</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>42.84353342900354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.77334839103275</v>
+        <v>8.985600629735995</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.403497846635883</v>
+        <v>6.624243353925989</v>
       </c>
       <c r="E25">
-        <v>35.63564064350226</v>
+        <v>10.14706553442894</v>
       </c>
       <c r="F25">
-        <v>48.47473840628658</v>
+        <v>46.13104038312778</v>
       </c>
       <c r="G25">
-        <v>1.959201380220276</v>
+        <v>2.104747485088912</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.12686176264063</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.94690033754532</v>
       </c>
       <c r="L25">
-        <v>12.11719748834125</v>
+        <v>7.860023208277234</v>
       </c>
       <c r="M25">
-        <v>15.49633345609728</v>
+        <v>9.550118446343186</v>
       </c>
       <c r="N25">
-        <v>13.02714696844167</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>38.0560826653768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.454706560818627</v>
+        <v>12.48646723298373</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.608555573813913</v>
+        <v>8.498892129854536</v>
       </c>
       <c r="E2">
-        <v>9.695452712942361</v>
+        <v>11.35087430413469</v>
       </c>
       <c r="F2">
-        <v>43.51206941612953</v>
+        <v>43.74201707914073</v>
       </c>
       <c r="G2">
-        <v>2.119835463594475</v>
+        <v>3.724520570734143</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.26522736773432</v>
+        <v>34.82025943552465</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.45062207993844</v>
+        <v>12.91836874913834</v>
       </c>
       <c r="L2">
-        <v>7.537987441332595</v>
+        <v>10.70111164754587</v>
       </c>
       <c r="M2">
-        <v>9.249475953109453</v>
+        <v>14.96453792705237</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.08920200715434</v>
+        <v>12.47837265242513</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.599945711797113</v>
+        <v>8.490878560581223</v>
       </c>
       <c r="E3">
-        <v>9.384677231909649</v>
+        <v>11.26040879204615</v>
       </c>
       <c r="F3">
-        <v>41.71581210371924</v>
+        <v>43.31310791699558</v>
       </c>
       <c r="G3">
-        <v>2.130330686152074</v>
+        <v>3.728176500998455</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.69508695983249</v>
+        <v>34.70402485822505</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.37146724241908</v>
+        <v>12.71931627174165</v>
       </c>
       <c r="L3">
-        <v>7.323800458017796</v>
+        <v>10.69179746896463</v>
       </c>
       <c r="M3">
-        <v>9.053647566826175</v>
+        <v>14.97896920775743</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.862814786948213</v>
+        <v>12.4767950400259</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.595572267986941</v>
+        <v>8.486089419064676</v>
       </c>
       <c r="E4">
-        <v>9.191211855734194</v>
+        <v>11.2032005886357</v>
       </c>
       <c r="F4">
-        <v>40.60458343022748</v>
+        <v>43.05554038489529</v>
       </c>
       <c r="G4">
-        <v>2.136925441527406</v>
+        <v>3.730537402822632</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.35182147490466</v>
+        <v>34.63565688092577</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.6757738198119</v>
+        <v>12.60046836262643</v>
       </c>
       <c r="L4">
-        <v>7.194542924519793</v>
+        <v>10.68813308339531</v>
       </c>
       <c r="M4">
-        <v>8.937522124991624</v>
+        <v>14.99062752729272</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.770215361791139</v>
+        <v>12.47700819603486</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.594008030099532</v>
+        <v>8.484170644024026</v>
       </c>
       <c r="E5">
-        <v>9.111670843300999</v>
+        <v>11.17947241101096</v>
       </c>
       <c r="F5">
-        <v>40.15007568708802</v>
+        <v>42.95212044301346</v>
       </c>
       <c r="G5">
-        <v>2.139653109439441</v>
+        <v>3.731528805196999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.2136565530887</v>
+        <v>34.60855937001526</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.38382103128994</v>
+        <v>12.55295551044128</v>
       </c>
       <c r="L5">
-        <v>7.142479202071768</v>
+        <v>10.68715763106998</v>
       </c>
       <c r="M5">
-        <v>8.891267431835093</v>
+        <v>14.99608226175367</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.754823206336706</v>
+        <v>12.47709536793845</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.593761128789144</v>
+        <v>8.483854011391736</v>
       </c>
       <c r="E6">
-        <v>9.098419807584749</v>
+        <v>11.17550735329099</v>
       </c>
       <c r="F6">
-        <v>40.07451757872175</v>
+        <v>42.93504316551072</v>
       </c>
       <c r="G6">
-        <v>2.140108533758477</v>
+        <v>3.731695200630179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.19081844700428</v>
+        <v>34.60410616508326</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.33482833412761</v>
+        <v>12.54512355595815</v>
       </c>
       <c r="L6">
-        <v>7.133872194504103</v>
+        <v>10.68702696108243</v>
       </c>
       <c r="M6">
-        <v>8.883652290550033</v>
+        <v>14.99703053734345</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.861567143445086</v>
+        <v>12.47679444518239</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.595550304376352</v>
+        <v>8.486063409060812</v>
       </c>
       <c r="E7">
-        <v>9.19014202306391</v>
+        <v>11.20288226046596</v>
       </c>
       <c r="F7">
-        <v>40.59845994877237</v>
+        <v>43.05413927687277</v>
       </c>
       <c r="G7">
-        <v>2.136962061824174</v>
+        <v>3.730550654379396</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.34995116374692</v>
+        <v>34.63528833454121</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.67187083223208</v>
+        <v>12.59982377589453</v>
       </c>
       <c r="L7">
-        <v>7.193838247279127</v>
+        <v>10.68811783018272</v>
       </c>
       <c r="M7">
-        <v>8.936893953211849</v>
+        <v>14.99069824138167</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.329172472696534</v>
+        <v>12.48297408507187</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.605390163011084</v>
+        <v>8.496101722575439</v>
       </c>
       <c r="E8">
-        <v>9.588821987280983</v>
+        <v>11.32002825451775</v>
       </c>
       <c r="F8">
-        <v>42.89467523861584</v>
+        <v>43.59298144351192</v>
       </c>
       <c r="G8">
-        <v>2.123424433510588</v>
+        <v>3.725757095699801</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.06723443907262</v>
+        <v>34.77956429319817</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.08531446475092</v>
+        <v>12.84907887990602</v>
       </c>
       <c r="L8">
-        <v>7.463692674629216</v>
+        <v>10.69747449097552</v>
       </c>
       <c r="M8">
-        <v>9.181120184530059</v>
+        <v>14.96893353427108</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.224975970939965</v>
+        <v>12.52185148840035</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.632496606680059</v>
+        <v>8.516835562254293</v>
       </c>
       <c r="E9">
-        <v>10.35182720722379</v>
+        <v>11.53645932387504</v>
       </c>
       <c r="F9">
-        <v>47.31717646277011</v>
+        <v>44.69161015597999</v>
       </c>
       <c r="G9">
-        <v>2.097955215841401</v>
+        <v>3.717273493444726</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.52780843695382</v>
+        <v>35.08589912449098</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.60102235775597</v>
+        <v>13.3614243273703</v>
       </c>
       <c r="L9">
-        <v>8.009099104891501</v>
+        <v>10.73206125181501</v>
       </c>
       <c r="M9">
-        <v>9.691296992095372</v>
+        <v>14.948424238932</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.864202231606692</v>
+        <v>12.56647419709497</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.658033641627316</v>
+        <v>8.532719115600734</v>
       </c>
       <c r="E10">
-        <v>10.9049593301446</v>
+        <v>11.68723998664041</v>
       </c>
       <c r="F10">
-        <v>50.50444781035086</v>
+        <v>45.51892339074104</v>
       </c>
       <c r="G10">
-        <v>2.07971900161354</v>
+        <v>3.711592327558877</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.63462167862949</v>
+        <v>35.32466733871539</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.30313665399725</v>
+        <v>13.74788698701153</v>
       </c>
       <c r="L10">
-        <v>8.417939546131745</v>
+        <v>10.76726896992274</v>
       </c>
       <c r="M10">
-        <v>10.08352340866721</v>
+        <v>14.9468286829624</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.15002743379036</v>
+        <v>12.59019391443621</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.671086481601924</v>
+        <v>8.540088349329835</v>
       </c>
       <c r="E11">
-        <v>11.1561655285292</v>
+        <v>11.75402102728206</v>
       </c>
       <c r="F11">
-        <v>51.94009238412299</v>
+        <v>45.89847777145178</v>
       </c>
       <c r="G11">
-        <v>2.071480288293267</v>
+        <v>3.709126123648288</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.14592722127945</v>
+        <v>35.43612993521457</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.04820670744326</v>
+        <v>13.92497049498811</v>
       </c>
       <c r="L11">
-        <v>8.605488973709532</v>
+        <v>10.7853848664779</v>
       </c>
       <c r="M11">
-        <v>10.26547836827704</v>
+        <v>14.94901476446358</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.25750175278526</v>
+        <v>12.59966112478821</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.676255914405105</v>
+        <v>8.542899668773314</v>
       </c>
       <c r="E12">
-        <v>11.25135455180556</v>
+        <v>11.77904671846042</v>
       </c>
       <c r="F12">
-        <v>52.48173389960616</v>
+        <v>46.04256516992868</v>
       </c>
       <c r="G12">
-        <v>2.068364345154827</v>
+        <v>3.70820911650369</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.34072986632643</v>
+        <v>35.47873437298021</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.32637306183255</v>
+        <v>13.99213748959087</v>
       </c>
       <c r="L12">
-        <v>8.676729703663556</v>
+        <v>10.7925438710178</v>
       </c>
       <c r="M12">
-        <v>10.33487436048209</v>
+        <v>14.95025975413245</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.23438966604854</v>
+        <v>12.59760073316706</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.675132161075899</v>
+        <v>8.542293276777194</v>
       </c>
       <c r="E13">
-        <v>11.23084890276161</v>
+        <v>11.77366871834788</v>
       </c>
       <c r="F13">
-        <v>52.36516912365202</v>
+        <v>46.01151906183748</v>
       </c>
       <c r="G13">
-        <v>2.069035321345732</v>
+        <v>3.708405860836038</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.29872184702332</v>
+        <v>35.46954135157557</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.26663786596501</v>
+        <v>13.97766817994842</v>
       </c>
       <c r="L13">
-        <v>8.66137692028382</v>
+        <v>10.79098880887826</v>
       </c>
       <c r="M13">
-        <v>10.31990686842331</v>
+        <v>14.94997309693928</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.15888487981328</v>
+        <v>12.59096310726568</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.671507108983678</v>
+        <v>8.540319221978059</v>
       </c>
       <c r="E14">
-        <v>11.16399474548148</v>
+        <v>11.75608518819109</v>
       </c>
       <c r="F14">
-        <v>51.9846931413494</v>
+        <v>45.91032533253394</v>
       </c>
       <c r="G14">
-        <v>2.071223886708085</v>
+        <v>3.709050342999568</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.16192963222784</v>
+        <v>35.43962717018206</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.07116989877349</v>
+        <v>13.93049459342219</v>
       </c>
       <c r="L14">
-        <v>8.611345574595413</v>
+        <v>10.78596787000685</v>
       </c>
       <c r="M14">
-        <v>10.27117777504916</v>
+        <v>14.94910883959332</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.11253574826144</v>
+        <v>12.58696032715416</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.669316806849522</v>
+        <v>8.539112760957046</v>
       </c>
       <c r="E15">
-        <v>11.12305683997725</v>
+        <v>11.74528046333663</v>
       </c>
       <c r="F15">
-        <v>51.75138244457062</v>
+        <v>45.84838488354794</v>
       </c>
       <c r="G15">
-        <v>2.072564813942085</v>
+        <v>3.709447303517305</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.07829658728487</v>
+        <v>35.42135503371733</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.95092959682795</v>
+        <v>13.90161146503229</v>
       </c>
       <c r="L15">
-        <v>8.580728599719752</v>
+        <v>10.78293123128125</v>
       </c>
       <c r="M15">
-        <v>10.24139381175625</v>
+        <v>14.94863373440216</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.845418505587663</v>
+        <v>12.56499232127252</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.657211171471049</v>
+        <v>8.532240418407602</v>
       </c>
       <c r="E16">
-        <v>10.88854399670887</v>
+        <v>11.68283904712533</v>
       </c>
       <c r="F16">
-        <v>50.41033962893762</v>
+        <v>45.49417435370333</v>
       </c>
       <c r="G16">
-        <v>2.080258210906603</v>
+        <v>3.711755869074175</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.60136835968025</v>
+        <v>35.31743914198552</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.25387528277872</v>
+        <v>13.73633348039998</v>
       </c>
       <c r="L16">
-        <v>8.405713542027323</v>
+        <v>10.76612705348606</v>
       </c>
       <c r="M16">
-        <v>10.07170186425523</v>
+        <v>14.94674428420085</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.680239742294173</v>
+        <v>12.55238711573078</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.650166155568445</v>
+        <v>8.528061334215408</v>
       </c>
       <c r="E17">
-        <v>10.7446514913581</v>
+        <v>11.64406785321729</v>
       </c>
       <c r="F17">
-        <v>49.58400094504438</v>
+        <v>45.27762569795395</v>
       </c>
       <c r="G17">
-        <v>2.084989553896791</v>
+        <v>3.713202295358495</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.31082377593771</v>
+        <v>35.2544097518729</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.81892272203184</v>
+        <v>13.63521475487985</v>
       </c>
       <c r="L17">
-        <v>8.298741162557761</v>
+        <v>10.75635396922506</v>
       </c>
       <c r="M17">
-        <v>9.968492817580676</v>
+        <v>14.94632993880716</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.584767899305294</v>
+        <v>12.54545934816838</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.646247875873613</v>
+        <v>8.525671159654976</v>
       </c>
       <c r="E18">
-        <v>10.66184052163149</v>
+        <v>11.62159748740703</v>
       </c>
       <c r="F18">
-        <v>49.10736166299026</v>
+        <v>45.15338050234989</v>
       </c>
       <c r="G18">
-        <v>2.087716553021513</v>
+        <v>3.714045372030598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.14444057209452</v>
+        <v>35.21842560223515</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.56598318592771</v>
+        <v>13.57717874577735</v>
       </c>
       <c r="L18">
-        <v>8.237360521488972</v>
+        <v>10.75093058765435</v>
       </c>
       <c r="M18">
-        <v>9.909462261626386</v>
+        <v>14.94636580869688</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.552364611984268</v>
+        <v>12.54316929723723</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.644943621406441</v>
+        <v>8.524864207623462</v>
       </c>
       <c r="E19">
-        <v>10.63379057003389</v>
+        <v>11.61396025563998</v>
       </c>
       <c r="F19">
-        <v>48.94574800416063</v>
+        <v>45.11136921465301</v>
       </c>
       <c r="G19">
-        <v>2.088640962773434</v>
+        <v>3.714332738171685</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.0882300873367</v>
+        <v>35.20628852792245</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.4798605512293</v>
+        <v>13.55755249608528</v>
       </c>
       <c r="L19">
-        <v>8.216603693598087</v>
+        <v>10.7491283898809</v>
       </c>
       <c r="M19">
-        <v>9.889533203467572</v>
+        <v>14.94642508989233</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.697871876406809</v>
+        <v>12.55369564026757</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.650902120286645</v>
+        <v>8.528504804532727</v>
       </c>
       <c r="E20">
-        <v>10.75997322632617</v>
+        <v>11.64821274692762</v>
       </c>
       <c r="F20">
-        <v>49.67210593987766</v>
+        <v>45.30064655269512</v>
       </c>
       <c r="G20">
-        <v>2.084485338657859</v>
+        <v>3.713047169605842</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.34167679911831</v>
+        <v>35.2610916238882</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.86550889928039</v>
+        <v>13.64596664670458</v>
       </c>
       <c r="L20">
-        <v>8.310113411796079</v>
+        <v>10.75737387624973</v>
       </c>
       <c r="M20">
-        <v>9.97944530540792</v>
+        <v>14.94634567956174</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.18108342121261</v>
+        <v>12.59289963164439</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.672565552852812</v>
+        <v>8.54089848597156</v>
       </c>
       <c r="E21">
-        <v>11.18362863834527</v>
+        <v>11.76125705085735</v>
       </c>
       <c r="F21">
-        <v>52.09650173945776</v>
+        <v>45.94003947356855</v>
       </c>
       <c r="G21">
-        <v>2.070580983852321</v>
+        <v>3.708860585384815</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.20207614296076</v>
+        <v>35.44840305247934</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.12868952882623</v>
+        <v>13.94434823712719</v>
       </c>
       <c r="L21">
-        <v>8.626035011871508</v>
+        <v>10.78743455489709</v>
       </c>
       <c r="M21">
-        <v>10.28547736318925</v>
+        <v>14.94935138467</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.50545270228307</v>
+        <v>12.62134546257904</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.688055756732633</v>
+        <v>8.54911945143807</v>
       </c>
       <c r="E22">
-        <v>11.46095161020377</v>
+        <v>11.83360486413971</v>
       </c>
       <c r="F22">
-        <v>53.66938673095676</v>
+        <v>46.35996135902123</v>
       </c>
       <c r="G22">
-        <v>2.061513883905867</v>
+        <v>3.706222814685615</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.77133391102406</v>
+        <v>35.57312334634673</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.9312039997142</v>
+        <v>14.13996200061882</v>
       </c>
       <c r="L22">
-        <v>8.833795558182082</v>
+        <v>10.80882158390842</v>
       </c>
       <c r="M22">
-        <v>10.48836405443727</v>
+        <v>14.9537464766175</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.32668228060685</v>
+        <v>12.60590742294234</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.679659207074748</v>
+        <v>8.544720674356258</v>
       </c>
       <c r="E23">
-        <v>11.31285215582305</v>
+        <v>11.79513259453649</v>
       </c>
       <c r="F23">
-        <v>52.83092814238191</v>
+        <v>46.13568814375699</v>
       </c>
       <c r="G23">
-        <v>2.066352889913889</v>
+        <v>3.707621672939561</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.46684958278882</v>
+        <v>35.50635173095547</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.50491349829823</v>
+        <v>14.03552807016768</v>
       </c>
       <c r="L23">
-        <v>8.722790688347356</v>
+        <v>10.79724873720102</v>
       </c>
       <c r="M23">
-        <v>10.37981865105162</v>
+        <v>14.95117889943092</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.68990196817661</v>
+        <v>12.5531030617594</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.650568981002991</v>
+        <v>8.528304272862599</v>
       </c>
       <c r="E24">
-        <v>10.75304654442719</v>
+        <v>11.64633940192948</v>
       </c>
       <c r="F24">
-        <v>49.63227855205195</v>
+        <v>45.29023803293407</v>
       </c>
       <c r="G24">
-        <v>2.084713272596863</v>
+        <v>3.713117266107514</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.32772611209526</v>
+        <v>35.25806996264838</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.84445627446448</v>
+        <v>13.64110540389705</v>
       </c>
       <c r="L24">
-        <v>8.304971646055611</v>
+        <v>10.75691216773557</v>
       </c>
       <c r="M24">
-        <v>9.974492732301409</v>
+        <v>14.94633770931505</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.985600629735995</v>
+        <v>12.50849296552688</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.624243353925989</v>
+        <v>8.511113033580701</v>
       </c>
       <c r="E25">
-        <v>10.14706553442894</v>
+        <v>11.47934539709396</v>
       </c>
       <c r="F25">
-        <v>46.13104038312778</v>
+        <v>44.39046295600446</v>
       </c>
       <c r="G25">
-        <v>2.104747485088912</v>
+        <v>3.719471136668233</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.12686176264063</v>
+        <v>35.00057690085976</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.94690033754532</v>
+        <v>13.22074559067002</v>
       </c>
       <c r="L25">
-        <v>7.860023208277234</v>
+        <v>10.72097550099727</v>
       </c>
       <c r="M25">
-        <v>9.550118446343186</v>
+        <v>14.95160260992187</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.48646723298373</v>
+        <v>8.454706560818579</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.498892129854536</v>
+        <v>6.608555573813975</v>
       </c>
       <c r="E2">
-        <v>11.35087430413469</v>
+        <v>9.695452712942483</v>
       </c>
       <c r="F2">
-        <v>43.74201707914073</v>
+        <v>43.51206941612952</v>
       </c>
       <c r="G2">
-        <v>3.724520570734143</v>
+        <v>2.119835463594349</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.82025943552465</v>
+        <v>29.26522736773429</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.91836874913834</v>
+        <v>15.4506220799385</v>
       </c>
       <c r="L2">
-        <v>10.70111164754587</v>
+        <v>7.537987441332556</v>
       </c>
       <c r="M2">
-        <v>14.96453792705237</v>
+        <v>9.249475953109435</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.47837265242513</v>
+        <v>8.089202007154334</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.490878560581223</v>
+        <v>6.599945711797182</v>
       </c>
       <c r="E3">
-        <v>11.26040879204615</v>
+        <v>9.384677231909645</v>
       </c>
       <c r="F3">
-        <v>43.31310791699558</v>
+        <v>41.71581210371923</v>
       </c>
       <c r="G3">
-        <v>3.728176500998455</v>
+        <v>2.130330686152338</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.70402485822505</v>
+        <v>28.69508695983253</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.71931627174165</v>
+        <v>14.3714672424191</v>
       </c>
       <c r="L3">
-        <v>10.69179746896463</v>
+        <v>7.323800458017689</v>
       </c>
       <c r="M3">
-        <v>14.97896920775743</v>
+        <v>9.053647566826116</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4767950400259</v>
+        <v>7.862814786948194</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.486089419064676</v>
+        <v>6.595572267987117</v>
       </c>
       <c r="E4">
-        <v>11.2032005886357</v>
+        <v>9.191211855734242</v>
       </c>
       <c r="F4">
-        <v>43.05554038489529</v>
+        <v>40.60458343022749</v>
       </c>
       <c r="G4">
-        <v>3.730537402822632</v>
+        <v>2.136925441527402</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.63565688092577</v>
+        <v>28.35182147490467</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.60046836262643</v>
+        <v>13.67577381981188</v>
       </c>
       <c r="L4">
-        <v>10.68813308339531</v>
+        <v>7.194542924519863</v>
       </c>
       <c r="M4">
-        <v>14.99062752729272</v>
+        <v>8.937522124991675</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.47700819603486</v>
+        <v>7.770215361791146</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.484170644024026</v>
+        <v>6.594008030099592</v>
       </c>
       <c r="E5">
-        <v>11.17947241101096</v>
+        <v>9.111670843301191</v>
       </c>
       <c r="F5">
-        <v>42.95212044301346</v>
+        <v>40.15007568708796</v>
       </c>
       <c r="G5">
-        <v>3.731528805196999</v>
+        <v>2.139653109439435</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.60855937001526</v>
+        <v>28.21365655308866</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.55295551044128</v>
+        <v>13.38382103129001</v>
       </c>
       <c r="L5">
-        <v>10.68715763106998</v>
+        <v>7.142479202071804</v>
       </c>
       <c r="M5">
-        <v>14.99608226175367</v>
+        <v>8.891267431835125</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.47709536793845</v>
+        <v>7.754823206336753</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.483854011391736</v>
+        <v>6.593761128789335</v>
       </c>
       <c r="E6">
-        <v>11.17550735329099</v>
+        <v>9.098419807584872</v>
       </c>
       <c r="F6">
-        <v>42.93504316551072</v>
+        <v>40.07451757872165</v>
       </c>
       <c r="G6">
-        <v>3.731695200630179</v>
+        <v>2.140108533758344</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.60410616508326</v>
+        <v>28.19081844700431</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.54512355595815</v>
+        <v>13.33482833412769</v>
       </c>
       <c r="L6">
-        <v>10.68702696108243</v>
+        <v>7.133872194504105</v>
       </c>
       <c r="M6">
-        <v>14.99703053734345</v>
+        <v>8.88365229055003</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.47679444518239</v>
+        <v>7.861567143445042</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.486063409060812</v>
+        <v>6.59555030437653</v>
       </c>
       <c r="E7">
-        <v>11.20288226046596</v>
+        <v>9.190142023063768</v>
       </c>
       <c r="F7">
-        <v>43.05413927687277</v>
+        <v>40.59845994877243</v>
       </c>
       <c r="G7">
-        <v>3.730550654379396</v>
+        <v>2.136962061823779</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.63528833454121</v>
+        <v>28.3499511637469</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.59982377589453</v>
+        <v>13.67187083223198</v>
       </c>
       <c r="L7">
-        <v>10.68811783018272</v>
+        <v>7.193838247279196</v>
       </c>
       <c r="M7">
-        <v>14.99069824138167</v>
+        <v>8.936893953211882</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.48297408507187</v>
+        <v>8.329172472696564</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.496101722575439</v>
+        <v>6.605390163011133</v>
       </c>
       <c r="E8">
-        <v>11.32002825451775</v>
+        <v>9.588821987280983</v>
       </c>
       <c r="F8">
-        <v>43.59298144351192</v>
+        <v>42.8946752386159</v>
       </c>
       <c r="G8">
-        <v>3.725757095699801</v>
+        <v>2.123424433510586</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.77956429319817</v>
+        <v>29.0672344390727</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.84907887990602</v>
+        <v>15.08531446475086</v>
       </c>
       <c r="L8">
-        <v>10.69747449097552</v>
+        <v>7.463692674629264</v>
       </c>
       <c r="M8">
-        <v>14.96893353427108</v>
+        <v>9.181120184530094</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.52185148840035</v>
+        <v>9.224975970939999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.516835562254293</v>
+        <v>6.63249660668007</v>
       </c>
       <c r="E9">
-        <v>11.53645932387504</v>
+        <v>10.35182720722378</v>
       </c>
       <c r="F9">
-        <v>44.69161015597999</v>
+        <v>47.31717646277009</v>
       </c>
       <c r="G9">
-        <v>3.717273493444726</v>
+        <v>2.097955215841401</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.08589912449098</v>
+        <v>30.52780843695382</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.3614243273703</v>
+        <v>17.60102235775599</v>
       </c>
       <c r="L9">
-        <v>10.73206125181501</v>
+        <v>8.009099104891495</v>
       </c>
       <c r="M9">
-        <v>14.948424238932</v>
+        <v>9.691296992095367</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.56647419709497</v>
+        <v>9.864202231606708</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.532719115600734</v>
+        <v>6.658033641627442</v>
       </c>
       <c r="E10">
-        <v>11.68723998664041</v>
+        <v>10.90495933014478</v>
       </c>
       <c r="F10">
-        <v>45.51892339074104</v>
+        <v>50.5044478103508</v>
       </c>
       <c r="G10">
-        <v>3.711592327558877</v>
+        <v>2.07971900161354</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.32466733871539</v>
+        <v>31.63462167862948</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.74788698701153</v>
+        <v>19.30313665399729</v>
       </c>
       <c r="L10">
-        <v>10.76726896992274</v>
+        <v>8.417939546131748</v>
       </c>
       <c r="M10">
-        <v>14.9468286829624</v>
+        <v>10.08352340866723</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.59019391443621</v>
+        <v>10.15002743379041</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.540088349329835</v>
+        <v>6.671086481601963</v>
       </c>
       <c r="E11">
-        <v>11.75402102728206</v>
+        <v>11.15616552852908</v>
       </c>
       <c r="F11">
-        <v>45.89847777145178</v>
+        <v>51.94009238412293</v>
       </c>
       <c r="G11">
-        <v>3.709126123648288</v>
+        <v>2.071480288293396</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.43612993521457</v>
+        <v>32.14592722127948</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.92497049498811</v>
+        <v>20.04820670744315</v>
       </c>
       <c r="L11">
-        <v>10.7853848664779</v>
+        <v>8.605488973709519</v>
       </c>
       <c r="M11">
-        <v>14.94901476446358</v>
+        <v>10.26547836827706</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59966112478821</v>
+        <v>10.25750175278528</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.542899668773314</v>
+        <v>6.676255914405115</v>
       </c>
       <c r="E12">
-        <v>11.77904671846042</v>
+        <v>11.25135455180549</v>
       </c>
       <c r="F12">
-        <v>46.04256516992868</v>
+        <v>52.48173389960623</v>
       </c>
       <c r="G12">
-        <v>3.70820911650369</v>
+        <v>2.068364345154698</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.47873437298021</v>
+        <v>32.34072986632648</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.99213748959087</v>
+        <v>20.32637306183255</v>
       </c>
       <c r="L12">
-        <v>10.7925438710178</v>
+        <v>8.676729703663524</v>
       </c>
       <c r="M12">
-        <v>14.95025975413245</v>
+        <v>10.33487436048208</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.59760073316706</v>
+        <v>10.23438966604856</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.542293276777194</v>
+        <v>6.67513216107595</v>
       </c>
       <c r="E13">
-        <v>11.77366871834788</v>
+        <v>11.23084890276155</v>
       </c>
       <c r="F13">
-        <v>46.01151906183748</v>
+        <v>52.36516912365207</v>
       </c>
       <c r="G13">
-        <v>3.708405860836038</v>
+        <v>2.069035321345742</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.46954135157557</v>
+        <v>32.29872184702335</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.97766817994842</v>
+        <v>20.26663786596504</v>
       </c>
       <c r="L13">
-        <v>10.79098880887826</v>
+        <v>8.661376920283828</v>
       </c>
       <c r="M13">
-        <v>14.94997309693928</v>
+        <v>10.31990686842331</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.59096310726568</v>
+        <v>10.15888487981329</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.540319221978059</v>
+        <v>6.671507108983854</v>
       </c>
       <c r="E14">
-        <v>11.75608518819109</v>
+        <v>11.16399474548141</v>
       </c>
       <c r="F14">
-        <v>45.91032533253394</v>
+        <v>51.9846931413494</v>
       </c>
       <c r="G14">
-        <v>3.709050342999568</v>
+        <v>2.071223886708352</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.43962717018206</v>
+        <v>32.16192963222787</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.93049459342219</v>
+        <v>20.07116989877345</v>
       </c>
       <c r="L14">
-        <v>10.78596787000685</v>
+        <v>8.611345574595425</v>
       </c>
       <c r="M14">
-        <v>14.94910883959332</v>
+        <v>10.27117777504916</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.58696032715416</v>
+        <v>10.11253574826141</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.539112760957046</v>
+        <v>6.669316806849535</v>
       </c>
       <c r="E15">
-        <v>11.74528046333663</v>
+        <v>11.12305683997713</v>
       </c>
       <c r="F15">
-        <v>45.84838488354794</v>
+        <v>51.75138244457065</v>
       </c>
       <c r="G15">
-        <v>3.709447303517305</v>
+        <v>2.072564813941825</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.42135503371733</v>
+        <v>32.07829658728487</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.90161146503229</v>
+        <v>19.95092959682789</v>
       </c>
       <c r="L15">
-        <v>10.78293123128125</v>
+        <v>8.580728599719786</v>
       </c>
       <c r="M15">
-        <v>14.94863373440216</v>
+        <v>10.24139381175624</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.56499232127252</v>
+        <v>9.845418505587688</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.532240418407602</v>
+        <v>6.657211171470934</v>
       </c>
       <c r="E16">
-        <v>11.68283904712533</v>
+        <v>10.888543996709</v>
       </c>
       <c r="F16">
-        <v>45.49417435370333</v>
+        <v>50.41033962893756</v>
       </c>
       <c r="G16">
-        <v>3.711755869074175</v>
+        <v>2.080258210906476</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.31743914198552</v>
+        <v>31.60136835968027</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.73633348039998</v>
+        <v>19.25387528277873</v>
       </c>
       <c r="L16">
-        <v>10.76612705348606</v>
+        <v>8.405713542027318</v>
       </c>
       <c r="M16">
-        <v>14.94674428420085</v>
+        <v>10.07170186425525</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.55238711573078</v>
+        <v>9.680239742294178</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.528061334215408</v>
+        <v>6.650166155568497</v>
       </c>
       <c r="E17">
-        <v>11.64406785321729</v>
+        <v>10.74465149135828</v>
       </c>
       <c r="F17">
-        <v>45.27762569795395</v>
+        <v>49.58400094504447</v>
       </c>
       <c r="G17">
-        <v>3.713202295358495</v>
+        <v>2.084989553896661</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.2544097518729</v>
+        <v>31.31082377593781</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.63521475487985</v>
+        <v>18.81892272203184</v>
       </c>
       <c r="L17">
-        <v>10.75635396922506</v>
+        <v>8.298741162557773</v>
       </c>
       <c r="M17">
-        <v>14.94632993880716</v>
+        <v>9.968492817580689</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.54545934816838</v>
+        <v>9.584767899305325</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.525671159654976</v>
+        <v>6.646247875873559</v>
       </c>
       <c r="E18">
-        <v>11.62159748740703</v>
+        <v>10.66184052163149</v>
       </c>
       <c r="F18">
-        <v>45.15338050234989</v>
+        <v>49.10736166299021</v>
       </c>
       <c r="G18">
-        <v>3.714045372030598</v>
+        <v>2.087716553021258</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.21842560223515</v>
+        <v>31.14444057209454</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.57717874577735</v>
+        <v>18.56598318592761</v>
       </c>
       <c r="L18">
-        <v>10.75093058765435</v>
+        <v>8.237360521488931</v>
       </c>
       <c r="M18">
-        <v>14.94636580869688</v>
+        <v>9.909462261626413</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.54316929723723</v>
+        <v>9.552364611984276</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.524864207623462</v>
+        <v>6.644943621406386</v>
       </c>
       <c r="E19">
-        <v>11.61396025563998</v>
+        <v>10.63379057003394</v>
       </c>
       <c r="F19">
-        <v>45.11136921465301</v>
+        <v>48.94574800416072</v>
       </c>
       <c r="G19">
-        <v>3.714332738171685</v>
+        <v>2.088640962773569</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.20628852792245</v>
+        <v>31.08823008733674</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.55755249608528</v>
+        <v>18.47986055122924</v>
       </c>
       <c r="L19">
-        <v>10.7491283898809</v>
+        <v>8.216603693598099</v>
       </c>
       <c r="M19">
-        <v>14.94642508989233</v>
+        <v>9.8895332034676</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.55369564026757</v>
+        <v>9.697871876406808</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.528504804532727</v>
+        <v>6.650902120286685</v>
       </c>
       <c r="E20">
-        <v>11.64821274692762</v>
+        <v>10.75997322632654</v>
       </c>
       <c r="F20">
-        <v>45.30064655269512</v>
+        <v>49.67210593987774</v>
       </c>
       <c r="G20">
-        <v>3.713047169605842</v>
+        <v>2.084485338657848</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.2610916238882</v>
+        <v>31.34167679911837</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.64596664670458</v>
+        <v>18.86550889928044</v>
       </c>
       <c r="L20">
-        <v>10.75737387624973</v>
+        <v>8.310113411796092</v>
       </c>
       <c r="M20">
-        <v>14.94634567956174</v>
+        <v>9.979445305407973</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.59289963164439</v>
+        <v>10.18108342121262</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.54089848597156</v>
+        <v>6.672565552852642</v>
       </c>
       <c r="E21">
-        <v>11.76125705085735</v>
+        <v>11.18362863834532</v>
       </c>
       <c r="F21">
-        <v>45.94003947356855</v>
+        <v>52.09650173945788</v>
       </c>
       <c r="G21">
-        <v>3.708860585384815</v>
+        <v>2.070580983852182</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.44840305247934</v>
+        <v>32.20207614296082</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.94434823712719</v>
+        <v>20.12868952882628</v>
       </c>
       <c r="L21">
-        <v>10.78743455489709</v>
+        <v>8.626035011871505</v>
       </c>
       <c r="M21">
-        <v>14.94935138467</v>
+        <v>10.28547736318923</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.62134546257904</v>
+        <v>10.50545270228307</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.54911945143807</v>
+        <v>6.688055756732582</v>
       </c>
       <c r="E22">
-        <v>11.83360486413971</v>
+        <v>11.46095161020371</v>
       </c>
       <c r="F22">
-        <v>46.35996135902123</v>
+        <v>53.66938673095677</v>
       </c>
       <c r="G22">
-        <v>3.706222814685615</v>
+        <v>2.061513883905865</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.57312334634673</v>
+        <v>32.77133391102404</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.13996200061882</v>
+        <v>20.9312039997142</v>
       </c>
       <c r="L22">
-        <v>10.80882158390842</v>
+        <v>8.833795558182061</v>
       </c>
       <c r="M22">
-        <v>14.9537464766175</v>
+        <v>10.48836405443726</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.60590742294234</v>
+        <v>10.32668228060684</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.544720674356258</v>
+        <v>6.679659207074859</v>
       </c>
       <c r="E23">
-        <v>11.79513259453649</v>
+        <v>11.31285215582323</v>
       </c>
       <c r="F23">
-        <v>46.13568814375699</v>
+        <v>52.83092814238203</v>
       </c>
       <c r="G23">
-        <v>3.707621672939561</v>
+        <v>2.066352889914159</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.50635173095547</v>
+        <v>32.46684958278889</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.03552807016768</v>
+        <v>20.50491349829827</v>
       </c>
       <c r="L23">
-        <v>10.79724873720102</v>
+        <v>8.722790688347395</v>
       </c>
       <c r="M23">
-        <v>14.95117889943092</v>
+        <v>10.37981865105163</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.5531030617594</v>
+        <v>9.689901968176624</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.528304272862599</v>
+        <v>6.650568981003331</v>
       </c>
       <c r="E24">
-        <v>11.64633940192948</v>
+        <v>10.75304654442731</v>
       </c>
       <c r="F24">
-        <v>45.29023803293407</v>
+        <v>49.63227855205195</v>
       </c>
       <c r="G24">
-        <v>3.713117266107514</v>
+        <v>2.084713272596471</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.25806996264838</v>
+        <v>31.32772611209539</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.64110540389705</v>
+        <v>18.84445627446453</v>
       </c>
       <c r="L24">
-        <v>10.75691216773557</v>
+        <v>8.30497164605555</v>
       </c>
       <c r="M24">
-        <v>14.94633770931505</v>
+        <v>9.974492732301412</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.50849296552688</v>
+        <v>8.98560062973597</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.511113033580701</v>
+        <v>6.624243353926003</v>
       </c>
       <c r="E25">
-        <v>11.47934539709396</v>
+        <v>10.14706553442862</v>
       </c>
       <c r="F25">
-        <v>44.39046295600446</v>
+        <v>46.13104038312783</v>
       </c>
       <c r="G25">
-        <v>3.719471136668233</v>
+        <v>2.104747485088777</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.00057690085976</v>
+        <v>30.12686176264058</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.22074559067002</v>
+        <v>16.94690033754524</v>
       </c>
       <c r="L25">
-        <v>10.72097550099727</v>
+        <v>7.860023208277203</v>
       </c>
       <c r="M25">
-        <v>14.95160260992187</v>
+        <v>9.550118446343149</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.454706560818579</v>
+        <v>14.47507789561987</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.608555573813975</v>
+        <v>3.264352411242343</v>
       </c>
       <c r="E2">
-        <v>9.695452712942483</v>
+        <v>19.59598821115502</v>
       </c>
       <c r="F2">
-        <v>43.51206941612952</v>
+        <v>18.43779243813951</v>
       </c>
       <c r="G2">
-        <v>2.119835463594349</v>
+        <v>24.73708922670378</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.453365273686104</v>
       </c>
       <c r="I2">
-        <v>29.26522736773429</v>
+        <v>4.054106651944702</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.70737586572543</v>
       </c>
       <c r="K2">
-        <v>15.4506220799385</v>
+        <v>15.14528331071629</v>
       </c>
       <c r="L2">
-        <v>7.537987441332556</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.249475953109435</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.556364963770693</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.49139476386226</v>
+      </c>
+      <c r="P2">
+        <v>14.76840924272227</v>
+      </c>
+      <c r="Q2">
+        <v>13.6328063073174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.089202007154334</v>
+        <v>13.63208505550278</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.599945711797182</v>
+        <v>3.105617900082303</v>
       </c>
       <c r="E3">
-        <v>9.384677231909645</v>
+        <v>19.09384959443591</v>
       </c>
       <c r="F3">
-        <v>41.71581210371923</v>
+        <v>17.43285785075357</v>
       </c>
       <c r="G3">
-        <v>2.130330686152338</v>
+        <v>23.16742231380514</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.604220996860726</v>
       </c>
       <c r="I3">
-        <v>28.69508695983253</v>
+        <v>4.145168075372596</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.515418199108007</v>
       </c>
       <c r="K3">
-        <v>14.3714672424191</v>
+        <v>15.35910426821405</v>
       </c>
       <c r="L3">
-        <v>7.323800458017689</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.053647566826116</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.16643804246724</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.95421079599676</v>
+      </c>
+      <c r="P3">
+        <v>14.64024130799043</v>
+      </c>
+      <c r="Q3">
+        <v>13.02568609201272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.862814786948194</v>
+        <v>13.08292149197779</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.595572267987117</v>
+        <v>3.003726264156192</v>
       </c>
       <c r="E4">
-        <v>9.191211855734242</v>
+        <v>18.78028528940433</v>
       </c>
       <c r="F4">
-        <v>40.60458343022749</v>
+        <v>16.79629001948043</v>
       </c>
       <c r="G4">
-        <v>2.136925441527402</v>
+        <v>22.1614633185374</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.700156862602157</v>
       </c>
       <c r="I4">
-        <v>28.35182147490467</v>
+        <v>4.203726923991112</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.399325198114049</v>
       </c>
       <c r="K4">
-        <v>13.67577381981188</v>
+        <v>15.49484656174416</v>
       </c>
       <c r="L4">
-        <v>7.194542924519863</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>8.937522124991675</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.917464795235702</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.61008073224942</v>
+      </c>
+      <c r="P4">
+        <v>14.56466313068631</v>
+      </c>
+      <c r="Q4">
+        <v>12.64652996205843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.770215361791146</v>
+        <v>12.84255192873512</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.594008030099592</v>
+        <v>2.961575863908777</v>
       </c>
       <c r="E5">
-        <v>9.111670843301191</v>
+        <v>18.65807127524247</v>
       </c>
       <c r="F5">
-        <v>40.15007568708796</v>
+        <v>16.52960348281005</v>
       </c>
       <c r="G5">
-        <v>2.139653109439435</v>
+        <v>21.73635116191097</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.740345673981506</v>
       </c>
       <c r="I5">
-        <v>28.21365655308866</v>
+        <v>4.230715448414855</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.351580607682566</v>
       </c>
       <c r="K5">
-        <v>13.38382103129001</v>
+        <v>15.55122431554583</v>
       </c>
       <c r="L5">
-        <v>7.142479202071804</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.891267431835125</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.817657495465329</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.46530390369754</v>
+      </c>
+      <c r="P5">
+        <v>14.53793151901042</v>
+      </c>
+      <c r="Q5">
+        <v>12.48837763544607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.754823206336753</v>
+        <v>12.79146847550986</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.593761128789335</v>
+        <v>2.955076754366458</v>
       </c>
       <c r="E6">
-        <v>9.098419807584872</v>
+        <v>18.64606265374054</v>
       </c>
       <c r="F6">
-        <v>40.07451757872165</v>
+        <v>16.48176929842076</v>
       </c>
       <c r="G6">
-        <v>2.140108533758344</v>
+        <v>21.65923047621051</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.747376812040764</v>
       </c>
       <c r="I6">
-        <v>28.19081844700431</v>
+        <v>4.238368513985312</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.34253880302303</v>
       </c>
       <c r="K6">
-        <v>13.33482833412769</v>
+        <v>15.56061835313968</v>
       </c>
       <c r="L6">
-        <v>7.133872194504105</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.88365229055003</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.805799967357189</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.43972270725753</v>
+      </c>
+      <c r="P6">
+        <v>14.53756172551238</v>
+      </c>
+      <c r="Q6">
+        <v>12.45926429148094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.861567143445042</v>
+        <v>13.05111558105432</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.59555030437653</v>
+        <v>3.004682834307856</v>
       </c>
       <c r="E7">
-        <v>9.190142023063768</v>
+        <v>18.80140260030615</v>
       </c>
       <c r="F7">
-        <v>40.59845994877243</v>
+        <v>16.78392963519054</v>
       </c>
       <c r="G7">
-        <v>2.136962061823779</v>
+        <v>22.14001363241454</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.701509817815325</v>
       </c>
       <c r="I7">
-        <v>28.3499511637469</v>
+        <v>4.212342366623523</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.395580778744333</v>
       </c>
       <c r="K7">
-        <v>13.67187083223198</v>
+        <v>15.49564431550892</v>
       </c>
       <c r="L7">
-        <v>7.193838247279196</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>8.936893953211882</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.929121095559163</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.60454648493134</v>
+      </c>
+      <c r="P7">
+        <v>14.57537170030738</v>
+      </c>
+      <c r="Q7">
+        <v>12.63694676345186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.329172472696564</v>
+        <v>14.1558580100064</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.605390163011133</v>
+        <v>3.212463310345117</v>
       </c>
       <c r="E8">
-        <v>9.588821987280983</v>
+        <v>19.45377538262012</v>
       </c>
       <c r="F8">
-        <v>42.8946752386159</v>
+        <v>18.08471344358817</v>
       </c>
       <c r="G8">
-        <v>2.123424433510586</v>
+        <v>24.18560415388668</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.505676085028074</v>
       </c>
       <c r="I8">
-        <v>29.0672344390727</v>
+        <v>4.095264250378218</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.636899848630113</v>
       </c>
       <c r="K8">
-        <v>15.08531446475086</v>
+        <v>15.21886616180707</v>
       </c>
       <c r="L8">
-        <v>7.463692674629264</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.181120184530094</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.440029001300016</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.30471874145377</v>
+      </c>
+      <c r="P8">
+        <v>14.73860259703078</v>
+      </c>
+      <c r="Q8">
+        <v>13.41563609810978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.224975970939999</v>
+        <v>16.11445353298115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.63249660668007</v>
+        <v>3.581464719770711</v>
       </c>
       <c r="E9">
-        <v>10.35182720722378</v>
+        <v>20.64830147847516</v>
       </c>
       <c r="F9">
-        <v>47.31717646277009</v>
+        <v>20.48368769207541</v>
       </c>
       <c r="G9">
-        <v>2.097955215841401</v>
+        <v>27.91249732032906</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.146176009633005</v>
       </c>
       <c r="I9">
-        <v>30.52780843695382</v>
+        <v>3.873159876605861</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.127074581888399</v>
       </c>
       <c r="K9">
-        <v>17.60102235775599</v>
+        <v>14.71010933473917</v>
       </c>
       <c r="L9">
-        <v>8.009099104891495</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>9.691296992095367</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.39257459577507</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.564921826291</v>
+      </c>
+      <c r="P9">
+        <v>15.06251812969726</v>
+      </c>
+      <c r="Q9">
+        <v>14.89560837305943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.864202231606708</v>
+        <v>17.31446046780546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.658033641627442</v>
+        <v>3.840315605302346</v>
       </c>
       <c r="E10">
-        <v>10.90495933014478</v>
+        <v>21.68156838117068</v>
       </c>
       <c r="F10">
-        <v>50.5044478103508</v>
+        <v>22.07971399744004</v>
       </c>
       <c r="G10">
-        <v>2.07971900161354</v>
+        <v>30.39873820855054</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.926846102665017</v>
       </c>
       <c r="I10">
-        <v>31.63462167862948</v>
+        <v>3.731862841994037</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.470194440717714</v>
       </c>
       <c r="K10">
-        <v>19.30313665399729</v>
+        <v>14.37001707503853</v>
       </c>
       <c r="L10">
-        <v>8.417939546131748</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.08352340866723</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.952062437048781</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.3203905687321</v>
+      </c>
+      <c r="P10">
+        <v>15.37080775832495</v>
+      </c>
+      <c r="Q10">
+        <v>15.88984961708729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.15002743379041</v>
+        <v>17.19463512552541</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.671086481601963</v>
+        <v>4.039408813638213</v>
       </c>
       <c r="E11">
-        <v>11.15616552852908</v>
+        <v>23.82548305980536</v>
       </c>
       <c r="F11">
-        <v>51.94009238412293</v>
+        <v>22.36811775471826</v>
       </c>
       <c r="G11">
-        <v>2.071480288293396</v>
+        <v>30.71773479660632</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.89118106477981</v>
       </c>
       <c r="I11">
-        <v>32.14592722127948</v>
+        <v>3.723672585254709</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.45077590817731</v>
       </c>
       <c r="K11">
-        <v>20.04820670744315</v>
+        <v>14.41878717780875</v>
       </c>
       <c r="L11">
-        <v>8.605488973709519</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>10.26547836827706</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.356307861819328</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.8621217150017</v>
+      </c>
+      <c r="P11">
+        <v>15.99611590875969</v>
+      </c>
+      <c r="Q11">
+        <v>15.94090419589934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.25750175278528</v>
+        <v>16.87659722398944</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.676255914405115</v>
+        <v>4.153550165796604</v>
       </c>
       <c r="E12">
-        <v>11.25135455180549</v>
+        <v>25.5400979719352</v>
       </c>
       <c r="F12">
-        <v>52.48173389960623</v>
+        <v>22.29829295638047</v>
       </c>
       <c r="G12">
-        <v>2.068364345154698</v>
+        <v>30.49217911189177</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.240770770492453</v>
       </c>
       <c r="I12">
-        <v>32.34072986632648</v>
+        <v>3.727671867422196</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.361970189181255</v>
       </c>
       <c r="K12">
-        <v>20.32637306183255</v>
+        <v>14.63675623357524</v>
       </c>
       <c r="L12">
-        <v>8.676729703663524</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>10.33487436048208</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.736226984504317</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.31442220495755</v>
+      </c>
+      <c r="P12">
+        <v>16.47153752817657</v>
+      </c>
+      <c r="Q12">
+        <v>15.78081886284589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.23438966604856</v>
+        <v>16.34316156633263</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.67513216107595</v>
+        <v>4.214048214801181</v>
       </c>
       <c r="E13">
-        <v>11.23084890276155</v>
+        <v>27.0588629448857</v>
       </c>
       <c r="F13">
-        <v>52.36516912365207</v>
+        <v>21.88704082471354</v>
       </c>
       <c r="G13">
-        <v>2.069035321345742</v>
+        <v>29.80047427825092</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.644807362932614</v>
       </c>
       <c r="I13">
-        <v>32.29872184702335</v>
+        <v>3.754447639683845</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.206508823906775</v>
       </c>
       <c r="K13">
-        <v>20.26663786596504</v>
+        <v>14.98171784735369</v>
       </c>
       <c r="L13">
-        <v>8.661376920283828</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>10.31990686842331</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.063579362960175</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.64630225423976</v>
+      </c>
+      <c r="P13">
+        <v>16.87284879500932</v>
+      </c>
+      <c r="Q13">
+        <v>15.43037689550296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.15888487981329</v>
+        <v>15.85765654768388</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.671507108983854</v>
+        <v>4.233256858076455</v>
       </c>
       <c r="E14">
-        <v>11.16399474548141</v>
+        <v>28.06052731507839</v>
       </c>
       <c r="F14">
-        <v>51.9846931413494</v>
+        <v>21.43570919171738</v>
       </c>
       <c r="G14">
-        <v>2.071223886708352</v>
+        <v>29.0900209126038</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.643424147949546</v>
       </c>
       <c r="I14">
-        <v>32.16192963222787</v>
+        <v>3.785750235614174</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.065163838574668</v>
       </c>
       <c r="K14">
-        <v>20.07116989877345</v>
+        <v>15.28867668758391</v>
       </c>
       <c r="L14">
-        <v>8.611345574595425</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10.27117777504916</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.571528128539115</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.11545075973177</v>
+      </c>
+      <c r="P14">
+        <v>17.1262169657923</v>
+      </c>
+      <c r="Q14">
+        <v>15.09204624776251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.11253574826141</v>
+        <v>15.68309703657097</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.669316806849535</v>
+        <v>4.226961726268521</v>
       </c>
       <c r="E15">
-        <v>11.12305683997713</v>
+        <v>28.25960602761634</v>
       </c>
       <c r="F15">
-        <v>51.75138244457065</v>
+        <v>21.2479919029721</v>
       </c>
       <c r="G15">
-        <v>2.072564813941825</v>
+        <v>28.80912548925615</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.875885004949196</v>
       </c>
       <c r="I15">
-        <v>32.07829658728487</v>
+        <v>3.802517222972526</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.015670793082485</v>
       </c>
       <c r="K15">
-        <v>19.95092959682789</v>
+        <v>15.38080115323535</v>
       </c>
       <c r="L15">
-        <v>8.580728599719786</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.24139381175624</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.440522899487652</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.9587824782114</v>
+      </c>
+      <c r="P15">
+        <v>17.17360818033059</v>
+      </c>
+      <c r="Q15">
+        <v>14.96592491984057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.845418505587688</v>
+        <v>15.24286403070119</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.657211171470934</v>
+        <v>4.113322598435283</v>
       </c>
       <c r="E16">
-        <v>10.888543996709</v>
+        <v>27.59182013601526</v>
       </c>
       <c r="F16">
-        <v>50.41033962893756</v>
+        <v>20.58465249983824</v>
       </c>
       <c r="G16">
-        <v>2.080258210906476</v>
+        <v>27.84359156380388</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.673976425070846</v>
       </c>
       <c r="I16">
-        <v>31.60136835968027</v>
+        <v>3.863919964563174</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.88947109489333</v>
       </c>
       <c r="K16">
-        <v>19.25387528277873</v>
+        <v>15.42430820378628</v>
       </c>
       <c r="L16">
-        <v>8.405713542027318</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.07170186425525</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.302881120891518</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.73743989986168</v>
+      </c>
+      <c r="P16">
+        <v>16.95870634805268</v>
+      </c>
+      <c r="Q16">
+        <v>14.5860211668386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.680239742294178</v>
+        <v>15.16927308695913</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.650166155568497</v>
+        <v>4.01367812505067</v>
       </c>
       <c r="E17">
-        <v>10.74465149135828</v>
+        <v>26.51076387898753</v>
       </c>
       <c r="F17">
-        <v>49.58400094504447</v>
+        <v>20.34416018973689</v>
       </c>
       <c r="G17">
-        <v>2.084989553896661</v>
+        <v>27.49091346339822</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.957004938261395</v>
       </c>
       <c r="I17">
-        <v>31.31082377593781</v>
+        <v>3.89490763434493</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.870647218461483</v>
       </c>
       <c r="K17">
-        <v>18.81892272203184</v>
+        <v>15.29415282815912</v>
       </c>
       <c r="L17">
-        <v>8.298741162557773</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>9.968492817580689</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.465809783927261</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.85941828137095</v>
+      </c>
+      <c r="P17">
+        <v>16.65705649331813</v>
+      </c>
+      <c r="Q17">
+        <v>14.48105193241157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.584767899305325</v>
+        <v>15.42842025298493</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.646247875873559</v>
+        <v>3.915076435499991</v>
       </c>
       <c r="E18">
-        <v>10.66184052163149</v>
+        <v>24.97817880553546</v>
       </c>
       <c r="F18">
-        <v>49.10736166299021</v>
+        <v>20.41625009936204</v>
       </c>
       <c r="G18">
-        <v>2.087716553021258</v>
+        <v>27.64859426279242</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.747828729470356</v>
       </c>
       <c r="I18">
-        <v>31.14444057209454</v>
+        <v>3.892361181644564</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.942460016763037</v>
       </c>
       <c r="K18">
-        <v>18.56598318592761</v>
+        <v>15.032853840132</v>
       </c>
       <c r="L18">
-        <v>8.237360521488931</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>9.909462261626413</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.919489268276291</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.29451296876036</v>
+      </c>
+      <c r="P18">
+        <v>16.24649701429301</v>
+      </c>
+      <c r="Q18">
+        <v>14.60628485421795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.552364611984276</v>
+        <v>15.88666679902454</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.644943621406386</v>
+        <v>3.828613780053146</v>
       </c>
       <c r="E19">
-        <v>10.63379057003394</v>
+        <v>23.35081378412058</v>
       </c>
       <c r="F19">
-        <v>48.94574800416072</v>
+        <v>20.71618329472551</v>
       </c>
       <c r="G19">
-        <v>2.088640962773569</v>
+        <v>28.17730238681947</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.348351781888191</v>
       </c>
       <c r="I19">
-        <v>31.08823008733674</v>
+        <v>3.876070223402301</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.073489824951842</v>
       </c>
       <c r="K19">
-        <v>18.47986055122924</v>
+        <v>14.77464707380003</v>
       </c>
       <c r="L19">
-        <v>8.216603693598099</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>9.8895332034676</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.607304562616592</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.93611199566951</v>
+      </c>
+      <c r="P19">
+        <v>15.82354084071322</v>
+      </c>
+      <c r="Q19">
+        <v>14.89001545901588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.697871876406808</v>
+        <v>16.93633468232863</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.650902120286685</v>
+        <v>3.778382638298969</v>
       </c>
       <c r="E20">
-        <v>10.75997322632654</v>
+        <v>21.48882889298141</v>
       </c>
       <c r="F20">
-        <v>49.67210593987774</v>
+        <v>21.64451230170446</v>
       </c>
       <c r="G20">
-        <v>2.084485338657848</v>
+        <v>29.72059409662335</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.984729185917834</v>
       </c>
       <c r="I20">
-        <v>31.34167679911837</v>
+        <v>3.794068826149658</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.37056802033897</v>
       </c>
       <c r="K20">
-        <v>18.86550889928044</v>
+        <v>14.46532587391453</v>
       </c>
       <c r="L20">
-        <v>8.310113411796092</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>9.979445305407973</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.835338249605289</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.11343724099071</v>
+      </c>
+      <c r="P20">
+        <v>15.32801266109606</v>
+      </c>
+      <c r="Q20">
+        <v>15.61111168968655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.18108342121262</v>
+        <v>17.93421674506038</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.672565552852642</v>
+        <v>3.953369332443942</v>
       </c>
       <c r="E21">
-        <v>11.18362863834532</v>
+        <v>21.98230463321398</v>
       </c>
       <c r="F21">
-        <v>52.09650173945788</v>
+        <v>22.95045085174763</v>
       </c>
       <c r="G21">
-        <v>2.070580983852182</v>
+        <v>31.69911031082932</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.77668267050718</v>
       </c>
       <c r="I21">
-        <v>32.20207614296082</v>
+        <v>3.676287963982473</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.667149595048176</v>
       </c>
       <c r="K21">
-        <v>20.12868952882628</v>
+        <v>14.19336599000713</v>
       </c>
       <c r="L21">
-        <v>8.626035011871505</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10.28547736318923</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.393739971282297</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.81076226830583</v>
+      </c>
+      <c r="P21">
+        <v>15.48337484585969</v>
+      </c>
+      <c r="Q21">
+        <v>16.43155424027309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.50545270228307</v>
+        <v>18.54753647547368</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.688055756732582</v>
+        <v>4.067020925870808</v>
       </c>
       <c r="E22">
-        <v>11.46095161020371</v>
+        <v>22.36213216970595</v>
       </c>
       <c r="F22">
-        <v>53.66938673095677</v>
+        <v>23.82448144814795</v>
       </c>
       <c r="G22">
-        <v>2.061513883905865</v>
+        <v>32.91683225354681</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.656428961761381</v>
       </c>
       <c r="I22">
-        <v>32.77133391102404</v>
+        <v>3.593653128846031</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.854089917275413</v>
       </c>
       <c r="K22">
-        <v>20.9312039997142</v>
+        <v>14.02221351618377</v>
       </c>
       <c r="L22">
-        <v>8.833795558182061</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>10.48836405443726</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.683021895688402</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.20790265876746</v>
+      </c>
+      <c r="P22">
+        <v>15.59762677637153</v>
+      </c>
+      <c r="Q22">
+        <v>16.96375274413501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.32668228060684</v>
+        <v>18.24774683869775</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.679659207074859</v>
+        <v>4.005329572597869</v>
       </c>
       <c r="E23">
-        <v>11.31285215582323</v>
+        <v>22.13513219881264</v>
       </c>
       <c r="F23">
-        <v>52.83092814238203</v>
+        <v>23.36827437227216</v>
       </c>
       <c r="G23">
-        <v>2.066352889914159</v>
+        <v>32.28371138432251</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.719756997662299</v>
       </c>
       <c r="I23">
-        <v>32.46684958278889</v>
+        <v>3.627666041738007</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.757376289838852</v>
       </c>
       <c r="K23">
-        <v>20.50491349829827</v>
+        <v>14.11025484630779</v>
       </c>
       <c r="L23">
-        <v>8.722790688347395</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>10.37981865105163</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.518476283635998</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.00070521768236</v>
+      </c>
+      <c r="P23">
+        <v>15.52245217072741</v>
+      </c>
+      <c r="Q23">
+        <v>16.67709318524674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.689901968176624</v>
+        <v>17.01626484967452</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.650568981003331</v>
+        <v>3.765281617674958</v>
       </c>
       <c r="E24">
-        <v>10.75304654442731</v>
+        <v>21.30083026407264</v>
       </c>
       <c r="F24">
-        <v>49.63227855205195</v>
+        <v>21.67650918820016</v>
       </c>
       <c r="G24">
-        <v>2.084713272596471</v>
+        <v>29.77945056771081</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.965596168591225</v>
       </c>
       <c r="I24">
-        <v>31.32772611209539</v>
+        <v>3.776321138170117</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.386427811662331</v>
       </c>
       <c r="K24">
-        <v>18.84445627446453</v>
+        <v>14.4565170120842</v>
       </c>
       <c r="L24">
-        <v>8.30497164605555</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>9.974492732301412</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.889034749958613</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.18002855342491</v>
+      </c>
+      <c r="P24">
+        <v>15.26418263403599</v>
+      </c>
+      <c r="Q24">
+        <v>15.64409933210455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.98560062973597</v>
+        <v>15.56852331193974</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.624243353926003</v>
+        <v>3.48801213804551</v>
       </c>
       <c r="E25">
-        <v>10.14706553442862</v>
+        <v>20.37021642069282</v>
       </c>
       <c r="F25">
-        <v>46.13104038312783</v>
+        <v>19.84044022134559</v>
       </c>
       <c r="G25">
-        <v>2.104747485088777</v>
+        <v>26.89410460815801</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.241902281175619</v>
       </c>
       <c r="I25">
-        <v>30.12686176264058</v>
+        <v>3.945377661636774</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.988421575551934</v>
       </c>
       <c r="K25">
-        <v>16.94690033754524</v>
+        <v>14.84649594927404</v>
       </c>
       <c r="L25">
-        <v>7.860023208277203</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>9.550118446343149</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.158820518676784</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.23167198576462</v>
+      </c>
+      <c r="P25">
+        <v>14.99341075544555</v>
+      </c>
+      <c r="Q25">
+        <v>14.49101666994153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.47507789561987</v>
+        <v>14.51109229130629</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.264352411242343</v>
+        <v>3.290612625046894</v>
       </c>
       <c r="E2">
-        <v>19.59598821115502</v>
+        <v>18.77737041110995</v>
       </c>
       <c r="F2">
-        <v>18.43779243813951</v>
+        <v>18.5486921925289</v>
       </c>
       <c r="G2">
-        <v>24.73708922670378</v>
+        <v>24.81977778367521</v>
       </c>
       <c r="H2">
-        <v>2.453365273686104</v>
+        <v>2.28293915475084</v>
       </c>
       <c r="I2">
-        <v>4.054106651944702</v>
+        <v>3.768484503104362</v>
       </c>
       <c r="J2">
-        <v>7.70737586572543</v>
+        <v>8.576938042285265</v>
       </c>
       <c r="K2">
-        <v>15.14528331071629</v>
+        <v>14.50947364178764</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.13414011688275</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.21883946413384</v>
       </c>
       <c r="N2">
-        <v>7.556364963770693</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.49139476386226</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.76840924272227</v>
+        <v>7.621718912795125</v>
       </c>
       <c r="Q2">
-        <v>13.6328063073174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.50433761124798</v>
+      </c>
+      <c r="R2">
+        <v>14.51140007061925</v>
+      </c>
+      <c r="S2">
+        <v>13.76310957509067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.63208505550278</v>
+        <v>13.67343680493279</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.105617900082303</v>
+        <v>3.129255043840822</v>
       </c>
       <c r="E3">
-        <v>19.09384959443591</v>
+        <v>18.25022608663797</v>
       </c>
       <c r="F3">
-        <v>17.43285785075357</v>
+        <v>17.55985563472224</v>
       </c>
       <c r="G3">
-        <v>23.16742231380514</v>
+        <v>23.14123429683258</v>
       </c>
       <c r="H3">
-        <v>2.604220996860726</v>
+        <v>2.424843144442689</v>
       </c>
       <c r="I3">
-        <v>4.145168075372596</v>
+        <v>3.847146945229632</v>
       </c>
       <c r="J3">
-        <v>7.515418199108007</v>
+        <v>8.39289812632677</v>
       </c>
       <c r="K3">
-        <v>15.35910426821405</v>
+        <v>14.70249114136736</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.25360360710044</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.44099989431912</v>
       </c>
       <c r="N3">
-        <v>7.16643804246724</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.95421079599676</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.64024130799043</v>
+        <v>7.235298350960841</v>
       </c>
       <c r="Q3">
-        <v>13.02568609201272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.96576409447592</v>
+      </c>
+      <c r="R3">
+        <v>14.3673892122875</v>
+      </c>
+      <c r="S3">
+        <v>13.16753978297792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.08292149197779</v>
+        <v>13.12621608787513</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.003726264156192</v>
+        <v>3.025702527212606</v>
       </c>
       <c r="E4">
-        <v>18.78028528940433</v>
+        <v>17.92192085841093</v>
       </c>
       <c r="F4">
-        <v>16.79629001948043</v>
+        <v>16.93316922555477</v>
       </c>
       <c r="G4">
-        <v>22.1614633185374</v>
+        <v>22.10347017595893</v>
       </c>
       <c r="H4">
-        <v>2.700156862602157</v>
+        <v>2.515095694808868</v>
       </c>
       <c r="I4">
-        <v>4.203726923991112</v>
+        <v>3.898011988393964</v>
       </c>
       <c r="J4">
-        <v>7.399325198114049</v>
+        <v>8.279734526826649</v>
       </c>
       <c r="K4">
-        <v>15.49484656174416</v>
+        <v>14.82551752925734</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.34011612334085</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.58466512168329</v>
       </c>
       <c r="N4">
-        <v>6.917464795235702</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.61008073224942</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.56466313068631</v>
+        <v>6.989482483513347</v>
       </c>
       <c r="Q4">
-        <v>12.64652996205843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.62040204313016</v>
+      </c>
+      <c r="R4">
+        <v>14.28261884410928</v>
+      </c>
+      <c r="S4">
+        <v>12.79514513233138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.84255192873512</v>
+        <v>12.88672022914219</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.961575863908777</v>
+        <v>2.982823171706242</v>
       </c>
       <c r="E5">
-        <v>18.65807127524247</v>
+        <v>17.79339536690832</v>
       </c>
       <c r="F5">
-        <v>16.52960348281005</v>
+        <v>16.67069020883337</v>
       </c>
       <c r="G5">
-        <v>21.73635116191097</v>
+        <v>21.66502356029745</v>
       </c>
       <c r="H5">
-        <v>2.740345673981506</v>
+        <v>2.552916502992445</v>
       </c>
       <c r="I5">
-        <v>4.230715448414855</v>
+        <v>3.922275162823499</v>
       </c>
       <c r="J5">
-        <v>7.351580607682566</v>
+        <v>8.23281508113431</v>
       </c>
       <c r="K5">
-        <v>15.55122431554583</v>
+        <v>14.87627291960988</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.37617087801293</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.64665471861018</v>
       </c>
       <c r="N5">
-        <v>6.817657495465329</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.46530390369754</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.53793151901042</v>
+        <v>6.890859533879645</v>
       </c>
       <c r="Q5">
-        <v>12.48837763544607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.47509553321629</v>
+      </c>
+      <c r="R5">
+        <v>14.25199296071391</v>
+      </c>
+      <c r="S5">
+        <v>12.63981956673986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.79146847550986</v>
+        <v>12.83632884010163</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.955076754366458</v>
+        <v>2.976152500111826</v>
       </c>
       <c r="E6">
-        <v>18.64606265374054</v>
+        <v>17.7797450733811</v>
       </c>
       <c r="F6">
-        <v>16.48176929842076</v>
+        <v>16.62379100759177</v>
       </c>
       <c r="G6">
-        <v>21.65923047621051</v>
+        <v>21.58604456707739</v>
       </c>
       <c r="H6">
-        <v>2.747376812040764</v>
+        <v>2.559546479206033</v>
       </c>
       <c r="I6">
-        <v>4.238368513985312</v>
+        <v>3.930041847185688</v>
       </c>
       <c r="J6">
-        <v>7.34253880302303</v>
+        <v>8.22403311198134</v>
       </c>
       <c r="K6">
-        <v>15.56061835313968</v>
+        <v>14.88418493886179</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.37940829280279</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.65903347956845</v>
       </c>
       <c r="N6">
-        <v>6.805799967357189</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.43972270725753</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.53756172551238</v>
+        <v>6.878754100389051</v>
       </c>
       <c r="Q6">
-        <v>12.45926429148094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.44950933204143</v>
+      </c>
+      <c r="R6">
+        <v>14.25062610444073</v>
+      </c>
+      <c r="S6">
+        <v>12.61137572529644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05111558105432</v>
+        <v>13.09452754993627</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.004682834307856</v>
+        <v>3.030173874643962</v>
       </c>
       <c r="E7">
-        <v>18.80140260030615</v>
+        <v>17.93345944294679</v>
       </c>
       <c r="F7">
-        <v>16.78392963519054</v>
+        <v>16.90206822707053</v>
       </c>
       <c r="G7">
-        <v>22.14001363241454</v>
+        <v>22.19115027204587</v>
       </c>
       <c r="H7">
-        <v>2.701509817815325</v>
+        <v>2.516734664645549</v>
       </c>
       <c r="I7">
-        <v>4.212342366623523</v>
+        <v>3.908209350647752</v>
       </c>
       <c r="J7">
-        <v>7.395580778744333</v>
+        <v>8.218907295971739</v>
       </c>
       <c r="K7">
-        <v>15.49564431550892</v>
+        <v>14.82485035084413</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.33291835259836</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.59091481415992</v>
       </c>
       <c r="N7">
-        <v>6.929121095559163</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.60454648493134</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.57537170030738</v>
+        <v>6.997227412675645</v>
       </c>
       <c r="Q7">
-        <v>12.63694676345186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.61296171574153</v>
+      </c>
+      <c r="R7">
+        <v>14.29311861412987</v>
+      </c>
+      <c r="S7">
+        <v>12.76994332704116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.1558580100064</v>
+        <v>14.19151460588337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.212463310345117</v>
+        <v>3.249190120951822</v>
       </c>
       <c r="E8">
-        <v>19.45377538262012</v>
+        <v>18.59887059776138</v>
       </c>
       <c r="F8">
-        <v>18.08471344358817</v>
+        <v>18.14140578674987</v>
       </c>
       <c r="G8">
-        <v>24.18560415388668</v>
+        <v>24.56088499490739</v>
       </c>
       <c r="H8">
-        <v>2.505676085028074</v>
+        <v>2.333225698829341</v>
       </c>
       <c r="I8">
-        <v>4.095264250378218</v>
+        <v>3.807682207065659</v>
       </c>
       <c r="J8">
-        <v>7.636899848630113</v>
+        <v>8.324346121500346</v>
       </c>
       <c r="K8">
-        <v>15.21886616180707</v>
+        <v>14.57466869778471</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.16568059473318</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.30008152644159</v>
       </c>
       <c r="N8">
-        <v>7.440029001300016</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.30471874145377</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.73860259703078</v>
+        <v>7.496484123627041</v>
       </c>
       <c r="Q8">
-        <v>13.41563609810978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.31085659834724</v>
+      </c>
+      <c r="R8">
+        <v>14.47760750520925</v>
+      </c>
+      <c r="S8">
+        <v>13.49947536737747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.11445353298115</v>
+        <v>16.12865218686715</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.581464719770711</v>
+        <v>3.626477235957674</v>
       </c>
       <c r="E9">
-        <v>20.64830147847516</v>
+        <v>19.85379091352059</v>
       </c>
       <c r="F9">
-        <v>20.48368769207541</v>
+        <v>20.49111768182917</v>
       </c>
       <c r="G9">
-        <v>27.91249732032906</v>
+        <v>28.53372708859804</v>
       </c>
       <c r="H9">
-        <v>2.146176009633005</v>
+        <v>1.995279004904027</v>
       </c>
       <c r="I9">
-        <v>3.873159876605861</v>
+        <v>3.614566783420272</v>
       </c>
       <c r="J9">
-        <v>8.127074581888399</v>
+        <v>8.742663193020144</v>
       </c>
       <c r="K9">
-        <v>14.71010933473917</v>
+        <v>14.12058960239554</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.95314117303959</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.779153758036422</v>
       </c>
       <c r="N9">
-        <v>8.39257459577507</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.564921826291</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>15.06251812969726</v>
+        <v>8.394354029857155</v>
       </c>
       <c r="Q9">
-        <v>14.89560837305943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.57128754293901</v>
+      </c>
+      <c r="R9">
+        <v>14.84555718246531</v>
+      </c>
+      <c r="S9">
+        <v>14.94016269583019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.31446046780546</v>
+        <v>17.31625088243498</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.840315605302346</v>
+        <v>3.90768593651659</v>
       </c>
       <c r="E10">
-        <v>21.68156838117068</v>
+        <v>20.87867203440258</v>
       </c>
       <c r="F10">
-        <v>22.07971399744004</v>
+        <v>21.96676146128336</v>
       </c>
       <c r="G10">
-        <v>30.39873820855054</v>
+        <v>31.58188614364225</v>
       </c>
       <c r="H10">
-        <v>1.926846102665017</v>
+        <v>1.793170665371042</v>
       </c>
       <c r="I10">
-        <v>3.731862841994037</v>
+        <v>3.495234856096729</v>
       </c>
       <c r="J10">
-        <v>8.470194440717714</v>
+        <v>8.728349942260449</v>
       </c>
       <c r="K10">
-        <v>14.37001707503853</v>
+        <v>13.82045516643558</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.87487540225477</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.438011586446386</v>
       </c>
       <c r="N10">
-        <v>8.952062437048781</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.3203905687321</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>15.37080775832495</v>
+        <v>8.885970265920136</v>
       </c>
       <c r="Q10">
-        <v>15.88984961708729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.31702887015825</v>
+      </c>
+      <c r="R10">
+        <v>15.18564898751018</v>
+      </c>
+      <c r="S10">
+        <v>15.831305554194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.19463512552541</v>
+        <v>17.29077106098696</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.039408813638213</v>
+        <v>4.139908499456077</v>
       </c>
       <c r="E11">
-        <v>23.82548305980536</v>
+        <v>22.82797710672079</v>
       </c>
       <c r="F11">
-        <v>22.36811775471826</v>
+        <v>22.0534752247268</v>
       </c>
       <c r="G11">
-        <v>30.71773479660632</v>
+        <v>32.99773891190135</v>
       </c>
       <c r="H11">
-        <v>2.89118106477981</v>
+        <v>2.807779531857421</v>
       </c>
       <c r="I11">
-        <v>3.723672585254709</v>
+        <v>3.495913638760642</v>
       </c>
       <c r="J11">
-        <v>8.45077590817731</v>
+        <v>8.068727258499967</v>
       </c>
       <c r="K11">
-        <v>14.41878717780875</v>
+        <v>13.85261120396122</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.00924397377356</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.386064774506913</v>
       </c>
       <c r="N11">
-        <v>8.356307861819328</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>12.8621217150017</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>15.99611590875969</v>
+        <v>8.131477850294793</v>
       </c>
       <c r="Q11">
-        <v>15.94090419589934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.8508874789945</v>
+      </c>
+      <c r="R11">
+        <v>15.76880793662959</v>
+      </c>
+      <c r="S11">
+        <v>15.73476774774254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.87659722398944</v>
+        <v>17.05858222602193</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.153550165796604</v>
+        <v>4.267214395729511</v>
       </c>
       <c r="E12">
-        <v>25.5400979719352</v>
+        <v>24.38360491259904</v>
       </c>
       <c r="F12">
-        <v>22.29829295638047</v>
+        <v>21.88087248755426</v>
       </c>
       <c r="G12">
-        <v>30.49217911189177</v>
+        <v>33.30270486176529</v>
       </c>
       <c r="H12">
-        <v>4.240770770492453</v>
+        <v>4.184597646003563</v>
       </c>
       <c r="I12">
-        <v>3.727671867422196</v>
+        <v>3.500318052524321</v>
       </c>
       <c r="J12">
-        <v>8.361970189181255</v>
+        <v>7.701118743522062</v>
       </c>
       <c r="K12">
-        <v>14.63675623357524</v>
+        <v>14.02286234895806</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.20499203216924</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.465603417940525</v>
       </c>
       <c r="N12">
-        <v>7.736226984504317</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.31442220495755</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>16.47153752817657</v>
+        <v>7.405809104856828</v>
       </c>
       <c r="Q12">
-        <v>15.78081886284589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.30477137947687</v>
+      </c>
+      <c r="R12">
+        <v>16.19327276063681</v>
+      </c>
+      <c r="S12">
+        <v>15.51786633962234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.34316156633263</v>
+        <v>16.61729510015444</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.214048214801181</v>
+        <v>4.31782026350798</v>
       </c>
       <c r="E13">
-        <v>27.0588629448857</v>
+        <v>25.79044795695636</v>
       </c>
       <c r="F13">
-        <v>21.88704082471354</v>
+        <v>21.51793611414639</v>
       </c>
       <c r="G13">
-        <v>29.80047427825092</v>
+        <v>32.55706703678224</v>
       </c>
       <c r="H13">
-        <v>5.644807362932614</v>
+        <v>5.601145978395331</v>
       </c>
       <c r="I13">
-        <v>3.754447639683845</v>
+        <v>3.523183976026509</v>
       </c>
       <c r="J13">
-        <v>8.206508823906775</v>
+        <v>7.643219263960422</v>
       </c>
       <c r="K13">
-        <v>14.98171784735369</v>
+        <v>14.28791475067839</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.41871327225425</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.656285880131882</v>
       </c>
       <c r="N13">
-        <v>7.063579362960175</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.64630225423976</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>16.87284879500932</v>
+        <v>6.685949061256813</v>
       </c>
       <c r="Q13">
-        <v>15.43037689550296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.64998106863599</v>
+      </c>
+      <c r="R13">
+        <v>16.52963511508597</v>
+      </c>
+      <c r="S13">
+        <v>15.21170823825947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.85765654768388</v>
+        <v>16.20064260078679</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.233256858076455</v>
+        <v>4.319559790501202</v>
       </c>
       <c r="E14">
-        <v>28.06052731507839</v>
+        <v>26.73529683785158</v>
       </c>
       <c r="F14">
-        <v>21.43570919171738</v>
+        <v>21.16867358434885</v>
       </c>
       <c r="G14">
-        <v>29.0900209126038</v>
+        <v>31.55214854997705</v>
       </c>
       <c r="H14">
-        <v>6.643424147949546</v>
+        <v>6.60476171816615</v>
       </c>
       <c r="I14">
-        <v>3.785750235614174</v>
+        <v>3.550375680964443</v>
       </c>
       <c r="J14">
-        <v>8.065163838574668</v>
+        <v>7.734202235461771</v>
       </c>
       <c r="K14">
-        <v>15.28867668758391</v>
+        <v>14.51997120672847</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.57256251358065</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.850420708138625</v>
       </c>
       <c r="N14">
-        <v>6.571528128539115</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.11545075973177</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>17.1262169657923</v>
+        <v>6.166654670927783</v>
       </c>
       <c r="Q14">
-        <v>15.09204624776251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.13349760162393</v>
+      </c>
+      <c r="R14">
+        <v>16.73000923068683</v>
+      </c>
+      <c r="S14">
+        <v>14.94961733174486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.68309703657097</v>
+        <v>16.04458780708563</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.226961726268521</v>
+        <v>4.304465528006689</v>
       </c>
       <c r="E15">
-        <v>28.25960602761634</v>
+        <v>26.93141257754046</v>
       </c>
       <c r="F15">
-        <v>21.2479919029721</v>
+        <v>21.03650831155301</v>
       </c>
       <c r="G15">
-        <v>28.80912548925615</v>
+        <v>31.08855593364399</v>
       </c>
       <c r="H15">
-        <v>6.875885004949196</v>
+        <v>6.837716901470587</v>
       </c>
       <c r="I15">
-        <v>3.802517222972526</v>
+        <v>3.56588160302824</v>
       </c>
       <c r="J15">
-        <v>8.015670793082485</v>
+        <v>7.812106932763302</v>
       </c>
       <c r="K15">
-        <v>15.38080115323535</v>
+        <v>14.58888062697436</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.60488931921251</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.918915898638483</v>
       </c>
       <c r="N15">
-        <v>6.440522899487652</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>10.9587824782114</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>17.17360818033059</v>
+        <v>6.030997051444904</v>
       </c>
       <c r="Q15">
-        <v>14.96592491984057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.98247268746718</v>
+      </c>
+      <c r="R15">
+        <v>16.76192372823516</v>
+      </c>
+      <c r="S15">
+        <v>14.86156628220796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24286403070119</v>
+        <v>15.60913644847778</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.113322598435283</v>
+        <v>4.153939118719227</v>
       </c>
       <c r="E16">
-        <v>27.59182013601526</v>
+        <v>26.36819131045068</v>
       </c>
       <c r="F16">
-        <v>20.58465249983824</v>
+        <v>20.59692798417005</v>
       </c>
       <c r="G16">
-        <v>27.84359156380388</v>
+        <v>29.18970166642649</v>
       </c>
       <c r="H16">
-        <v>6.673976425070846</v>
+        <v>6.629830330981264</v>
       </c>
       <c r="I16">
-        <v>3.863919964563174</v>
+        <v>3.618550303711062</v>
       </c>
       <c r="J16">
-        <v>7.88947109489333</v>
+        <v>8.275211082010465</v>
       </c>
       <c r="K16">
-        <v>15.42430820378628</v>
+        <v>14.61545916383825</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.49356009060514</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.04400825043948</v>
       </c>
       <c r="N16">
-        <v>6.302881120891518</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.73743989986168</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>16.95870634805268</v>
+        <v>5.910254295782766</v>
       </c>
       <c r="Q16">
-        <v>14.5860211668386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.77775406696975</v>
+      </c>
+      <c r="R16">
+        <v>16.53486792775209</v>
+      </c>
+      <c r="S16">
+        <v>14.64107767037103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.16927308695913</v>
+        <v>15.49886789820038</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.01367812505067</v>
+        <v>4.040695525258221</v>
       </c>
       <c r="E17">
-        <v>26.51076387898753</v>
+        <v>25.38299300847643</v>
       </c>
       <c r="F17">
-        <v>20.34416018973689</v>
+        <v>20.42663745516218</v>
       </c>
       <c r="G17">
-        <v>27.49091346339822</v>
+        <v>28.39664185701856</v>
       </c>
       <c r="H17">
-        <v>5.957004938261395</v>
+        <v>5.904359702648221</v>
       </c>
       <c r="I17">
-        <v>3.89490763434493</v>
+        <v>3.64526689617053</v>
       </c>
       <c r="J17">
-        <v>7.870647218461483</v>
+        <v>8.507396242241555</v>
       </c>
       <c r="K17">
-        <v>15.29415282815912</v>
+        <v>14.51846411569058</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.34319538552954</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.03040760352867</v>
       </c>
       <c r="N17">
-        <v>6.465809783927261</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.85941828137095</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>16.65705649331813</v>
+        <v>6.09931358803529</v>
       </c>
       <c r="Q17">
-        <v>14.48105193241157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.9024046195287</v>
+      </c>
+      <c r="R17">
+        <v>16.25523215516084</v>
+      </c>
+      <c r="S17">
+        <v>14.59586573839508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.42842025298493</v>
+        <v>15.68332101953241</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.915076435499991</v>
+        <v>3.940394200226037</v>
       </c>
       <c r="E18">
-        <v>24.97817880553546</v>
+        <v>23.96520468280523</v>
       </c>
       <c r="F18">
-        <v>20.41625009936204</v>
+        <v>20.51097229573441</v>
       </c>
       <c r="G18">
-        <v>27.64859426279242</v>
+        <v>28.32602106493897</v>
       </c>
       <c r="H18">
-        <v>4.747828729470356</v>
+        <v>4.680296664156</v>
       </c>
       <c r="I18">
-        <v>3.892361181644564</v>
+        <v>3.640231429299802</v>
       </c>
       <c r="J18">
-        <v>7.942460016763037</v>
+        <v>8.673906663806731</v>
       </c>
       <c r="K18">
-        <v>15.032853840132</v>
+        <v>14.32668188539922</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.16205978172834</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.908043072480439</v>
       </c>
       <c r="N18">
-        <v>6.919489268276291</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.29451296876036</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>16.24649701429301</v>
+        <v>6.629557544833986</v>
       </c>
       <c r="Q18">
-        <v>14.60628485421795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.33204066106726</v>
+      </c>
+      <c r="R18">
+        <v>15.89461438692254</v>
+      </c>
+      <c r="S18">
+        <v>14.73027837002905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.88666679902454</v>
+        <v>16.04714456418841</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.828613780053146</v>
+        <v>3.858633373018604</v>
       </c>
       <c r="E19">
-        <v>23.35081378412058</v>
+        <v>22.45298469630858</v>
       </c>
       <c r="F19">
-        <v>20.71618329472551</v>
+        <v>20.79117116056214</v>
       </c>
       <c r="G19">
-        <v>28.17730238681947</v>
+        <v>28.74546387668484</v>
       </c>
       <c r="H19">
-        <v>3.348351781888191</v>
+        <v>3.254374077121421</v>
       </c>
       <c r="I19">
-        <v>3.876070223402301</v>
+        <v>3.626912353684333</v>
       </c>
       <c r="J19">
-        <v>8.073489824951842</v>
+        <v>8.815244697183608</v>
       </c>
       <c r="K19">
-        <v>14.77464707380003</v>
+        <v>14.13913495502504</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.01747678859268</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.760377479787243</v>
       </c>
       <c r="N19">
-        <v>7.607304562616592</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>11.93611199566951</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>15.82354084071322</v>
+        <v>7.442585240224214</v>
       </c>
       <c r="Q19">
-        <v>14.89001545901588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.96388982912187</v>
+      </c>
+      <c r="R19">
+        <v>15.53261474078357</v>
+      </c>
+      <c r="S19">
+        <v>14.99559906976218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.93633468232863</v>
+        <v>16.95068684636568</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.778382638298969</v>
+        <v>3.82870674966867</v>
       </c>
       <c r="E20">
-        <v>21.48882889298141</v>
+        <v>20.71035657688785</v>
       </c>
       <c r="F20">
-        <v>21.64451230170446</v>
+        <v>21.61985074097543</v>
       </c>
       <c r="G20">
-        <v>29.72059409662335</v>
+        <v>30.47441242949543</v>
       </c>
       <c r="H20">
-        <v>1.984729185917834</v>
+        <v>1.845422670019576</v>
       </c>
       <c r="I20">
-        <v>3.794068826149658</v>
+        <v>3.556400306970408</v>
       </c>
       <c r="J20">
-        <v>8.37056802033897</v>
+        <v>8.909282957209328</v>
       </c>
       <c r="K20">
-        <v>14.46532587391453</v>
+        <v>13.90246137729352</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.89307826730818</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.530442208699668</v>
       </c>
       <c r="N20">
-        <v>8.835338249605289</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.11343724099071</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>15.32801266109606</v>
+        <v>8.791842189103207</v>
       </c>
       <c r="Q20">
-        <v>15.61111168968655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.11964386738858</v>
+      </c>
+      <c r="R20">
+        <v>15.12853382848768</v>
+      </c>
+      <c r="S20">
+        <v>15.6290926933724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.93421674506038</v>
+        <v>17.89689226239862</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.953369332443942</v>
+        <v>4.077866927381653</v>
       </c>
       <c r="E21">
-        <v>21.98230463321398</v>
+        <v>21.08025891421629</v>
       </c>
       <c r="F21">
-        <v>22.95045085174763</v>
+        <v>22.51118454901438</v>
       </c>
       <c r="G21">
-        <v>31.69911031082932</v>
+        <v>34.32101532191933</v>
       </c>
       <c r="H21">
-        <v>1.77668267050718</v>
+        <v>1.654563272139173</v>
       </c>
       <c r="I21">
-        <v>3.676287963982473</v>
+        <v>3.457547798597862</v>
       </c>
       <c r="J21">
-        <v>8.667149595048176</v>
+        <v>7.982248007568171</v>
       </c>
       <c r="K21">
-        <v>14.19336599000713</v>
+        <v>13.67180913579881</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.85456971489645</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.268032866368289</v>
       </c>
       <c r="N21">
-        <v>9.393739971282297</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>13.81076226830583</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>15.48337484585969</v>
+        <v>9.279292436853698</v>
       </c>
       <c r="Q21">
-        <v>16.43155424027309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.77452964516556</v>
+      </c>
+      <c r="R21">
+        <v>15.3367309118928</v>
+      </c>
+      <c r="S21">
+        <v>16.11800694650272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.54753647547368</v>
+        <v>18.48020245719844</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.067020925870808</v>
+        <v>4.24217447594616</v>
       </c>
       <c r="E22">
-        <v>22.36213216970595</v>
+        <v>21.36953423601353</v>
       </c>
       <c r="F22">
-        <v>23.82448144814795</v>
+        <v>23.0970597176314</v>
       </c>
       <c r="G22">
-        <v>32.91683225354681</v>
+        <v>36.79926025754386</v>
       </c>
       <c r="H22">
-        <v>1.656428961761381</v>
+        <v>1.575092142806461</v>
       </c>
       <c r="I22">
-        <v>3.593653128846031</v>
+        <v>3.384843352323282</v>
       </c>
       <c r="J22">
-        <v>8.854089917275413</v>
+        <v>7.338044544592946</v>
       </c>
       <c r="K22">
-        <v>14.02221351618377</v>
+        <v>13.52771830548212</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.84371098652128</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.104961977841461</v>
       </c>
       <c r="N22">
-        <v>9.683021895688402</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.20790265876746</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>15.59762677637153</v>
+        <v>9.517305142635268</v>
       </c>
       <c r="Q22">
-        <v>16.96375274413501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.14274967060114</v>
+      </c>
+      <c r="R22">
+        <v>15.48459275210794</v>
+      </c>
+      <c r="S22">
+        <v>16.40203418564067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.24774683869775</v>
+        <v>18.19762820716273</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.005329572597869</v>
+        <v>4.145918175028638</v>
       </c>
       <c r="E23">
-        <v>22.13513219881264</v>
+        <v>21.21033282532909</v>
       </c>
       <c r="F23">
-        <v>23.36827437227216</v>
+        <v>22.81411333663189</v>
       </c>
       <c r="G23">
-        <v>32.28371138432251</v>
+        <v>35.29636766559023</v>
       </c>
       <c r="H23">
-        <v>1.719756997662299</v>
+        <v>1.602339561484019</v>
       </c>
       <c r="I23">
-        <v>3.627666041738007</v>
+        <v>3.411262038583383</v>
       </c>
       <c r="J23">
-        <v>8.757376289838852</v>
+        <v>7.807103911743144</v>
       </c>
       <c r="K23">
-        <v>14.11025484630779</v>
+        <v>13.60056128262285</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.84376949612339</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.190405662995564</v>
       </c>
       <c r="N23">
-        <v>9.518476283635998</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.00070521768236</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>15.52245217072741</v>
+        <v>9.386079586848348</v>
       </c>
       <c r="Q23">
-        <v>16.67709318524674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.9551699831824</v>
+      </c>
+      <c r="R23">
+        <v>15.38991985995661</v>
+      </c>
+      <c r="S23">
+        <v>16.2913094571594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.01626484967452</v>
+        <v>17.01847647466647</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.765281617674958</v>
+        <v>3.815804536946302</v>
       </c>
       <c r="E24">
-        <v>21.30083026407264</v>
+        <v>20.53330002009477</v>
       </c>
       <c r="F24">
-        <v>21.67650918820016</v>
+        <v>21.65133877338671</v>
       </c>
       <c r="G24">
-        <v>29.77945056771081</v>
+        <v>30.5082335396384</v>
       </c>
       <c r="H24">
-        <v>1.965596168591225</v>
+        <v>1.825758644122539</v>
       </c>
       <c r="I24">
-        <v>3.776321138170117</v>
+        <v>3.535669400058644</v>
       </c>
       <c r="J24">
-        <v>8.386427811662331</v>
+        <v>8.933388008229572</v>
       </c>
       <c r="K24">
-        <v>14.4565170120842</v>
+        <v>13.89612220367166</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.88675321399831</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.526233756256229</v>
       </c>
       <c r="N24">
-        <v>8.889034749958613</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.18002855342491</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>15.26418263403599</v>
+        <v>8.856184972563344</v>
       </c>
       <c r="Q24">
-        <v>15.64409933210455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.18503163649979</v>
+      </c>
+      <c r="R24">
+        <v>15.07093030041325</v>
+      </c>
+      <c r="S24">
+        <v>15.6614803711602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.56852331193974</v>
+        <v>15.59369798419449</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.48801213804551</v>
+        <v>3.526024845988424</v>
       </c>
       <c r="E25">
-        <v>20.37021642069282</v>
+        <v>19.56770708583987</v>
       </c>
       <c r="F25">
-        <v>19.84044022134559</v>
+        <v>19.88590385696812</v>
       </c>
       <c r="G25">
-        <v>26.89410460815801</v>
+        <v>27.35460484299866</v>
       </c>
       <c r="H25">
-        <v>2.241902281175619</v>
+        <v>2.084874583760043</v>
       </c>
       <c r="I25">
-        <v>3.945377661636774</v>
+        <v>3.681577554679825</v>
       </c>
       <c r="J25">
-        <v>7.988421575551934</v>
+        <v>8.702298460558501</v>
       </c>
       <c r="K25">
-        <v>14.84649594927404</v>
+        <v>14.24054768455248</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.99660139370994</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.917949270759783</v>
       </c>
       <c r="N25">
-        <v>8.158820518676784</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.23167198576462</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.99341075544555</v>
+        <v>8.181431777051738</v>
       </c>
       <c r="Q25">
-        <v>14.49101666994153</v>
+        <v>12.24130998623518</v>
+      </c>
+      <c r="R25">
+        <v>14.76152914054905</v>
+      </c>
+      <c r="S25">
+        <v>14.56765778209549</v>
       </c>
     </row>
   </sheetData>
